--- a/streamlit/dados_brutos/immoscout24_comprar_zurich_20240818.xlsx
+++ b/streamlit/dados_brutos/immoscout24_comprar_zurich_20240818.xlsx
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Aluguel</t>
+          <t>Preço (CHF)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:01</t>
+          <t>2024-08-18 14:18:50</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:01</t>
+          <t>2024-08-18 14:18:50</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:01</t>
+          <t>2024-08-18 14:18:50</t>
         </is>
       </c>
     </row>
@@ -602,7 +602,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:01</t>
+          <t>2024-08-18 14:18:50</t>
         </is>
       </c>
     </row>
@@ -639,7 +639,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:01</t>
+          <t>2024-08-18 14:18:50</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:01</t>
+          <t>2024-08-18 14:18:50</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:01</t>
+          <t>2024-08-18 14:18:50</t>
         </is>
       </c>
     </row>
@@ -750,7 +750,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:01</t>
+          <t>2024-08-18 14:18:50</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:01</t>
+          <t>2024-08-18 14:18:50</t>
         </is>
       </c>
     </row>
@@ -824,7 +824,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:01</t>
+          <t>2024-08-18 14:18:50</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:01</t>
+          <t>2024-08-18 14:18:50</t>
         </is>
       </c>
     </row>
@@ -898,7 +898,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:01</t>
+          <t>2024-08-18 14:18:50</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:01</t>
+          <t>2024-08-18 14:18:50</t>
         </is>
       </c>
     </row>
@@ -972,7 +972,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:01</t>
+          <t>2024-08-18 14:18:50</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:01</t>
+          <t>2024-08-18 14:18:50</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:01</t>
+          <t>2024-08-18 14:18:50</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:01</t>
+          <t>2024-08-18 14:18:50</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:01</t>
+          <t>2024-08-18 14:18:50</t>
         </is>
       </c>
     </row>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:01</t>
+          <t>2024-08-18 14:18:50</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:01</t>
+          <t>2024-08-18 14:18:50</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:05</t>
+          <t>2024-08-18 14:18:53</t>
         </is>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:05</t>
+          <t>2024-08-18 14:18:53</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:05</t>
+          <t>2024-08-18 14:18:53</t>
         </is>
       </c>
     </row>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:05</t>
+          <t>2024-08-18 14:18:53</t>
         </is>
       </c>
     </row>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:05</t>
+          <t>2024-08-18 14:18:53</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:05</t>
+          <t>2024-08-18 14:18:53</t>
         </is>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:05</t>
+          <t>2024-08-18 14:18:53</t>
         </is>
       </c>
     </row>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:05</t>
+          <t>2024-08-18 14:18:53</t>
         </is>
       </c>
     </row>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:05</t>
+          <t>2024-08-18 14:18:53</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:05</t>
+          <t>2024-08-18 14:18:53</t>
         </is>
       </c>
     </row>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:05</t>
+          <t>2024-08-18 14:18:53</t>
         </is>
       </c>
     </row>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:05</t>
+          <t>2024-08-18 14:18:53</t>
         </is>
       </c>
     </row>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:05</t>
+          <t>2024-08-18 14:18:53</t>
         </is>
       </c>
     </row>
@@ -1712,7 +1712,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:05</t>
+          <t>2024-08-18 14:18:53</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:05</t>
+          <t>2024-08-18 14:18:53</t>
         </is>
       </c>
     </row>
@@ -1786,7 +1786,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:05</t>
+          <t>2024-08-18 14:18:53</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:05</t>
+          <t>2024-08-18 14:18:53</t>
         </is>
       </c>
     </row>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:05</t>
+          <t>2024-08-18 14:18:53</t>
         </is>
       </c>
     </row>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:05</t>
+          <t>2024-08-18 14:18:53</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:05</t>
+          <t>2024-08-18 14:18:53</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:08</t>
+          <t>2024-08-18 14:18:56</t>
         </is>
       </c>
     </row>
@@ -2008,7 +2008,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:08</t>
+          <t>2024-08-18 14:18:56</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:08</t>
+          <t>2024-08-18 14:18:56</t>
         </is>
       </c>
     </row>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:08</t>
+          <t>2024-08-18 14:18:56</t>
         </is>
       </c>
     </row>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:08</t>
+          <t>2024-08-18 14:18:56</t>
         </is>
       </c>
     </row>
@@ -2156,7 +2156,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:08</t>
+          <t>2024-08-18 14:18:56</t>
         </is>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:08</t>
+          <t>2024-08-18 14:18:56</t>
         </is>
       </c>
     </row>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:08</t>
+          <t>2024-08-18 14:18:56</t>
         </is>
       </c>
     </row>
@@ -2267,7 +2267,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:08</t>
+          <t>2024-08-18 14:18:56</t>
         </is>
       </c>
     </row>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:08</t>
+          <t>2024-08-18 14:18:56</t>
         </is>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:08</t>
+          <t>2024-08-18 14:18:56</t>
         </is>
       </c>
     </row>
@@ -2378,7 +2378,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:08</t>
+          <t>2024-08-18 14:18:56</t>
         </is>
       </c>
     </row>
@@ -2415,7 +2415,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:08</t>
+          <t>2024-08-18 14:18:56</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:08</t>
+          <t>2024-08-18 14:18:56</t>
         </is>
       </c>
     </row>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:08</t>
+          <t>2024-08-18 14:18:56</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:08</t>
+          <t>2024-08-18 14:18:56</t>
         </is>
       </c>
     </row>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:08</t>
+          <t>2024-08-18 14:18:56</t>
         </is>
       </c>
     </row>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:08</t>
+          <t>2024-08-18 14:18:56</t>
         </is>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:08</t>
+          <t>2024-08-18 14:18:56</t>
         </is>
       </c>
     </row>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:08</t>
+          <t>2024-08-18 14:18:56</t>
         </is>
       </c>
     </row>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:11</t>
+          <t>2024-08-18 14:18:59</t>
         </is>
       </c>
     </row>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:11</t>
+          <t>2024-08-18 14:18:59</t>
         </is>
       </c>
     </row>
@@ -2785,7 +2785,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:11</t>
+          <t>2024-08-18 14:18:59</t>
         </is>
       </c>
     </row>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:11</t>
+          <t>2024-08-18 14:18:59</t>
         </is>
       </c>
     </row>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:11</t>
+          <t>2024-08-18 14:18:59</t>
         </is>
       </c>
     </row>
@@ -2896,7 +2896,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:11</t>
+          <t>2024-08-18 14:18:59</t>
         </is>
       </c>
     </row>
@@ -2933,7 +2933,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:11</t>
+          <t>2024-08-18 14:18:59</t>
         </is>
       </c>
     </row>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:11</t>
+          <t>2024-08-18 14:18:59</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:11</t>
+          <t>2024-08-18 14:18:59</t>
         </is>
       </c>
     </row>
@@ -3044,7 +3044,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:11</t>
+          <t>2024-08-18 14:18:59</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:11</t>
+          <t>2024-08-18 14:18:59</t>
         </is>
       </c>
     </row>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:11</t>
+          <t>2024-08-18 14:18:59</t>
         </is>
       </c>
     </row>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:11</t>
+          <t>2024-08-18 14:18:59</t>
         </is>
       </c>
     </row>
@@ -3192,7 +3192,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:11</t>
+          <t>2024-08-18 14:18:59</t>
         </is>
       </c>
     </row>
@@ -3229,7 +3229,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:11</t>
+          <t>2024-08-18 14:18:59</t>
         </is>
       </c>
     </row>
@@ -3266,7 +3266,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:11</t>
+          <t>2024-08-18 14:18:59</t>
         </is>
       </c>
     </row>
@@ -3303,7 +3303,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:11</t>
+          <t>2024-08-18 14:18:59</t>
         </is>
       </c>
     </row>
@@ -3340,7 +3340,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:11</t>
+          <t>2024-08-18 14:18:59</t>
         </is>
       </c>
     </row>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:11</t>
+          <t>2024-08-18 14:18:59</t>
         </is>
       </c>
     </row>
@@ -3414,7 +3414,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:11</t>
+          <t>2024-08-18 14:18:59</t>
         </is>
       </c>
     </row>
@@ -3451,7 +3451,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:15</t>
+          <t>2024-08-18 14:19:03</t>
         </is>
       </c>
     </row>
@@ -3488,7 +3488,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:15</t>
+          <t>2024-08-18 14:19:03</t>
         </is>
       </c>
     </row>
@@ -3525,7 +3525,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:15</t>
+          <t>2024-08-18 14:19:03</t>
         </is>
       </c>
     </row>
@@ -3562,7 +3562,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:15</t>
+          <t>2024-08-18 14:19:03</t>
         </is>
       </c>
     </row>
@@ -3599,7 +3599,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:15</t>
+          <t>2024-08-18 14:19:03</t>
         </is>
       </c>
     </row>
@@ -3636,7 +3636,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:15</t>
+          <t>2024-08-18 14:19:03</t>
         </is>
       </c>
     </row>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:15</t>
+          <t>2024-08-18 14:19:03</t>
         </is>
       </c>
     </row>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:15</t>
+          <t>2024-08-18 14:19:03</t>
         </is>
       </c>
     </row>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:15</t>
+          <t>2024-08-18 14:19:03</t>
         </is>
       </c>
     </row>
@@ -3784,7 +3784,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:15</t>
+          <t>2024-08-18 14:19:03</t>
         </is>
       </c>
     </row>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:15</t>
+          <t>2024-08-18 14:19:03</t>
         </is>
       </c>
     </row>
@@ -3858,7 +3858,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:15</t>
+          <t>2024-08-18 14:19:03</t>
         </is>
       </c>
     </row>
@@ -3895,7 +3895,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:15</t>
+          <t>2024-08-18 14:19:03</t>
         </is>
       </c>
     </row>
@@ -3932,7 +3932,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:15</t>
+          <t>2024-08-18 14:19:03</t>
         </is>
       </c>
     </row>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:15</t>
+          <t>2024-08-18 14:19:03</t>
         </is>
       </c>
     </row>
@@ -4006,7 +4006,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:15</t>
+          <t>2024-08-18 14:19:03</t>
         </is>
       </c>
     </row>
@@ -4043,7 +4043,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:15</t>
+          <t>2024-08-18 14:19:03</t>
         </is>
       </c>
     </row>
@@ -4080,7 +4080,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:15</t>
+          <t>2024-08-18 14:19:03</t>
         </is>
       </c>
     </row>
@@ -4117,7 +4117,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:15</t>
+          <t>2024-08-18 14:19:03</t>
         </is>
       </c>
     </row>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:15</t>
+          <t>2024-08-18 14:19:03</t>
         </is>
       </c>
     </row>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:18</t>
+          <t>2024-08-18 14:19:07</t>
         </is>
       </c>
     </row>
@@ -4228,7 +4228,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:18</t>
+          <t>2024-08-18 14:19:07</t>
         </is>
       </c>
     </row>
@@ -4265,7 +4265,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:18</t>
+          <t>2024-08-18 14:19:07</t>
         </is>
       </c>
     </row>
@@ -4302,7 +4302,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:18</t>
+          <t>2024-08-18 14:19:07</t>
         </is>
       </c>
     </row>
@@ -4339,7 +4339,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:18</t>
+          <t>2024-08-18 14:19:07</t>
         </is>
       </c>
     </row>
@@ -4376,7 +4376,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:18</t>
+          <t>2024-08-18 14:19:07</t>
         </is>
       </c>
     </row>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:18</t>
+          <t>2024-08-18 14:19:07</t>
         </is>
       </c>
     </row>
@@ -4450,7 +4450,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:18</t>
+          <t>2024-08-18 14:19:07</t>
         </is>
       </c>
     </row>
@@ -4487,7 +4487,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:18</t>
+          <t>2024-08-18 14:19:07</t>
         </is>
       </c>
     </row>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:18</t>
+          <t>2024-08-18 14:19:07</t>
         </is>
       </c>
     </row>
@@ -4561,7 +4561,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:18</t>
+          <t>2024-08-18 14:19:07</t>
         </is>
       </c>
     </row>
@@ -4598,7 +4598,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:18</t>
+          <t>2024-08-18 14:19:07</t>
         </is>
       </c>
     </row>
@@ -4635,7 +4635,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:18</t>
+          <t>2024-08-18 14:19:07</t>
         </is>
       </c>
     </row>
@@ -4672,7 +4672,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:18</t>
+          <t>2024-08-18 14:19:07</t>
         </is>
       </c>
     </row>
@@ -4709,7 +4709,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:18</t>
+          <t>2024-08-18 14:19:07</t>
         </is>
       </c>
     </row>
@@ -4746,7 +4746,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:18</t>
+          <t>2024-08-18 14:19:07</t>
         </is>
       </c>
     </row>
@@ -4783,7 +4783,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:18</t>
+          <t>2024-08-18 14:19:07</t>
         </is>
       </c>
     </row>
@@ -4820,7 +4820,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:18</t>
+          <t>2024-08-18 14:19:07</t>
         </is>
       </c>
     </row>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:18</t>
+          <t>2024-08-18 14:19:07</t>
         </is>
       </c>
     </row>
@@ -4894,7 +4894,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:18</t>
+          <t>2024-08-18 14:19:07</t>
         </is>
       </c>
     </row>
@@ -4931,7 +4931,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:22</t>
+          <t>2024-08-18 14:19:11</t>
         </is>
       </c>
     </row>
@@ -4968,7 +4968,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:22</t>
+          <t>2024-08-18 14:19:11</t>
         </is>
       </c>
     </row>
@@ -5005,7 +5005,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:22</t>
+          <t>2024-08-18 14:19:11</t>
         </is>
       </c>
     </row>
@@ -5042,7 +5042,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:22</t>
+          <t>2024-08-18 14:19:11</t>
         </is>
       </c>
     </row>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:22</t>
+          <t>2024-08-18 14:19:11</t>
         </is>
       </c>
     </row>
@@ -5116,7 +5116,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:22</t>
+          <t>2024-08-18 14:19:11</t>
         </is>
       </c>
     </row>
@@ -5153,7 +5153,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:22</t>
+          <t>2024-08-18 14:19:11</t>
         </is>
       </c>
     </row>
@@ -5190,7 +5190,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:22</t>
+          <t>2024-08-18 14:19:11</t>
         </is>
       </c>
     </row>
@@ -5227,7 +5227,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:22</t>
+          <t>2024-08-18 14:19:11</t>
         </is>
       </c>
     </row>
@@ -5264,7 +5264,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:22</t>
+          <t>2024-08-18 14:19:11</t>
         </is>
       </c>
     </row>
@@ -5301,7 +5301,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:22</t>
+          <t>2024-08-18 14:19:11</t>
         </is>
       </c>
     </row>
@@ -5338,7 +5338,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:22</t>
+          <t>2024-08-18 14:19:11</t>
         </is>
       </c>
     </row>
@@ -5375,7 +5375,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:22</t>
+          <t>2024-08-18 14:19:11</t>
         </is>
       </c>
     </row>
@@ -5412,7 +5412,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:22</t>
+          <t>2024-08-18 14:19:11</t>
         </is>
       </c>
     </row>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:22</t>
+          <t>2024-08-18 14:19:11</t>
         </is>
       </c>
     </row>
@@ -5486,7 +5486,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:22</t>
+          <t>2024-08-18 14:19:11</t>
         </is>
       </c>
     </row>
@@ -5523,7 +5523,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:22</t>
+          <t>2024-08-18 14:19:11</t>
         </is>
       </c>
     </row>
@@ -5560,7 +5560,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:22</t>
+          <t>2024-08-18 14:19:11</t>
         </is>
       </c>
     </row>
@@ -5597,7 +5597,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:22</t>
+          <t>2024-08-18 14:19:11</t>
         </is>
       </c>
     </row>
@@ -5634,7 +5634,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:22</t>
+          <t>2024-08-18 14:19:11</t>
         </is>
       </c>
     </row>
@@ -5671,7 +5671,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:26</t>
+          <t>2024-08-18 14:19:14</t>
         </is>
       </c>
     </row>
@@ -5708,7 +5708,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:26</t>
+          <t>2024-08-18 14:19:14</t>
         </is>
       </c>
     </row>
@@ -5745,7 +5745,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:26</t>
+          <t>2024-08-18 14:19:14</t>
         </is>
       </c>
     </row>
@@ -5782,7 +5782,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:26</t>
+          <t>2024-08-18 14:19:14</t>
         </is>
       </c>
     </row>
@@ -5819,7 +5819,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:26</t>
+          <t>2024-08-18 14:19:14</t>
         </is>
       </c>
     </row>
@@ -5856,7 +5856,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:26</t>
+          <t>2024-08-18 14:19:14</t>
         </is>
       </c>
     </row>
@@ -5893,7 +5893,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:26</t>
+          <t>2024-08-18 14:19:14</t>
         </is>
       </c>
     </row>
@@ -5930,7 +5930,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:26</t>
+          <t>2024-08-18 14:19:14</t>
         </is>
       </c>
     </row>
@@ -5967,7 +5967,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:26</t>
+          <t>2024-08-18 14:19:14</t>
         </is>
       </c>
     </row>
@@ -6004,7 +6004,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:26</t>
+          <t>2024-08-18 14:19:14</t>
         </is>
       </c>
     </row>
@@ -6041,7 +6041,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:26</t>
+          <t>2024-08-18 14:19:14</t>
         </is>
       </c>
     </row>
@@ -6078,7 +6078,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:26</t>
+          <t>2024-08-18 14:19:14</t>
         </is>
       </c>
     </row>
@@ -6115,7 +6115,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:26</t>
+          <t>2024-08-18 14:19:14</t>
         </is>
       </c>
     </row>
@@ -6152,7 +6152,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:26</t>
+          <t>2024-08-18 14:19:14</t>
         </is>
       </c>
     </row>
@@ -6189,7 +6189,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:26</t>
+          <t>2024-08-18 14:19:14</t>
         </is>
       </c>
     </row>
@@ -6226,7 +6226,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:26</t>
+          <t>2024-08-18 14:19:14</t>
         </is>
       </c>
     </row>
@@ -6263,7 +6263,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:26</t>
+          <t>2024-08-18 14:19:14</t>
         </is>
       </c>
     </row>
@@ -6300,7 +6300,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:26</t>
+          <t>2024-08-18 14:19:14</t>
         </is>
       </c>
     </row>
@@ -6337,7 +6337,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:26</t>
+          <t>2024-08-18 14:19:14</t>
         </is>
       </c>
     </row>
@@ -6374,7 +6374,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:26</t>
+          <t>2024-08-18 14:19:14</t>
         </is>
       </c>
     </row>
@@ -6411,7 +6411,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:28</t>
+          <t>2024-08-18 14:19:18</t>
         </is>
       </c>
     </row>
@@ -6448,7 +6448,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:28</t>
+          <t>2024-08-18 14:19:18</t>
         </is>
       </c>
     </row>
@@ -6485,7 +6485,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:28</t>
+          <t>2024-08-18 14:19:18</t>
         </is>
       </c>
     </row>
@@ -6522,7 +6522,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:28</t>
+          <t>2024-08-18 14:19:18</t>
         </is>
       </c>
     </row>
@@ -6559,7 +6559,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:28</t>
+          <t>2024-08-18 14:19:18</t>
         </is>
       </c>
     </row>
@@ -6596,7 +6596,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:28</t>
+          <t>2024-08-18 14:19:18</t>
         </is>
       </c>
     </row>
@@ -6633,7 +6633,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:28</t>
+          <t>2024-08-18 14:19:18</t>
         </is>
       </c>
     </row>
@@ -6670,7 +6670,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:28</t>
+          <t>2024-08-18 14:19:18</t>
         </is>
       </c>
     </row>
@@ -6707,7 +6707,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:28</t>
+          <t>2024-08-18 14:19:18</t>
         </is>
       </c>
     </row>
@@ -6744,7 +6744,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:28</t>
+          <t>2024-08-18 14:19:18</t>
         </is>
       </c>
     </row>
@@ -6781,7 +6781,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:29</t>
+          <t>2024-08-18 14:19:18</t>
         </is>
       </c>
     </row>
@@ -6818,7 +6818,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:29</t>
+          <t>2024-08-18 14:19:18</t>
         </is>
       </c>
     </row>
@@ -6855,7 +6855,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:29</t>
+          <t>2024-08-18 14:19:18</t>
         </is>
       </c>
     </row>
@@ -6892,7 +6892,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:29</t>
+          <t>2024-08-18 14:19:18</t>
         </is>
       </c>
     </row>
@@ -6929,7 +6929,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:29</t>
+          <t>2024-08-18 14:19:18</t>
         </is>
       </c>
     </row>
@@ -6966,7 +6966,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:29</t>
+          <t>2024-08-18 14:19:18</t>
         </is>
       </c>
     </row>
@@ -7003,7 +7003,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:29</t>
+          <t>2024-08-18 14:19:18</t>
         </is>
       </c>
     </row>
@@ -7040,7 +7040,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:29</t>
+          <t>2024-08-18 14:19:18</t>
         </is>
       </c>
     </row>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:29</t>
+          <t>2024-08-18 14:19:18</t>
         </is>
       </c>
     </row>
@@ -7114,7 +7114,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:29</t>
+          <t>2024-08-18 14:19:18</t>
         </is>
       </c>
     </row>
@@ -7151,7 +7151,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:32</t>
+          <t>2024-08-18 14:19:22</t>
         </is>
       </c>
     </row>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:32</t>
+          <t>2024-08-18 14:19:22</t>
         </is>
       </c>
     </row>
@@ -7225,7 +7225,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:32</t>
+          <t>2024-08-18 14:19:22</t>
         </is>
       </c>
     </row>
@@ -7262,7 +7262,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:32</t>
+          <t>2024-08-18 14:19:22</t>
         </is>
       </c>
     </row>
@@ -7299,7 +7299,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:32</t>
+          <t>2024-08-18 14:19:22</t>
         </is>
       </c>
     </row>
@@ -7336,7 +7336,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:32</t>
+          <t>2024-08-18 14:19:22</t>
         </is>
       </c>
     </row>
@@ -7373,7 +7373,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:32</t>
+          <t>2024-08-18 14:19:22</t>
         </is>
       </c>
     </row>
@@ -7410,7 +7410,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:32</t>
+          <t>2024-08-18 14:19:22</t>
         </is>
       </c>
     </row>
@@ -7447,7 +7447,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:32</t>
+          <t>2024-08-18 14:19:22</t>
         </is>
       </c>
     </row>
@@ -7484,7 +7484,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:32</t>
+          <t>2024-08-18 14:19:22</t>
         </is>
       </c>
     </row>
@@ -7521,7 +7521,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:32</t>
+          <t>2024-08-18 14:19:22</t>
         </is>
       </c>
     </row>
@@ -7558,7 +7558,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:32</t>
+          <t>2024-08-18 14:19:22</t>
         </is>
       </c>
     </row>
@@ -7595,7 +7595,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:32</t>
+          <t>2024-08-18 14:19:22</t>
         </is>
       </c>
     </row>
@@ -7632,7 +7632,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:32</t>
+          <t>2024-08-18 14:19:22</t>
         </is>
       </c>
     </row>
@@ -7669,7 +7669,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:32</t>
+          <t>2024-08-18 14:19:22</t>
         </is>
       </c>
     </row>
@@ -7706,7 +7706,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:32</t>
+          <t>2024-08-18 14:19:22</t>
         </is>
       </c>
     </row>
@@ -7743,7 +7743,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:32</t>
+          <t>2024-08-18 14:19:22</t>
         </is>
       </c>
     </row>
@@ -7780,7 +7780,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:32</t>
+          <t>2024-08-18 14:19:22</t>
         </is>
       </c>
     </row>
@@ -7817,7 +7817,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:32</t>
+          <t>2024-08-18 14:19:22</t>
         </is>
       </c>
     </row>
@@ -7854,7 +7854,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:32</t>
+          <t>2024-08-18 14:19:22</t>
         </is>
       </c>
     </row>
@@ -7891,7 +7891,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:36</t>
+          <t>2024-08-18 14:19:25</t>
         </is>
       </c>
     </row>
@@ -7928,7 +7928,7 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:36</t>
+          <t>2024-08-18 14:19:25</t>
         </is>
       </c>
     </row>
@@ -7965,7 +7965,7 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:36</t>
+          <t>2024-08-18 14:19:25</t>
         </is>
       </c>
     </row>
@@ -8002,7 +8002,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:36</t>
+          <t>2024-08-18 14:19:25</t>
         </is>
       </c>
     </row>
@@ -8039,7 +8039,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:36</t>
+          <t>2024-08-18 14:19:25</t>
         </is>
       </c>
     </row>
@@ -8076,7 +8076,7 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:36</t>
+          <t>2024-08-18 14:19:25</t>
         </is>
       </c>
     </row>
@@ -8113,7 +8113,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:36</t>
+          <t>2024-08-18 14:19:25</t>
         </is>
       </c>
     </row>
@@ -8150,7 +8150,7 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:36</t>
+          <t>2024-08-18 14:19:25</t>
         </is>
       </c>
     </row>
@@ -8187,7 +8187,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:36</t>
+          <t>2024-08-18 14:19:25</t>
         </is>
       </c>
     </row>
@@ -8224,7 +8224,7 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:36</t>
+          <t>2024-08-18 14:19:25</t>
         </is>
       </c>
     </row>
@@ -8261,7 +8261,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:36</t>
+          <t>2024-08-18 14:19:25</t>
         </is>
       </c>
     </row>
@@ -8298,7 +8298,7 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:36</t>
+          <t>2024-08-18 14:19:25</t>
         </is>
       </c>
     </row>
@@ -8335,7 +8335,7 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:36</t>
+          <t>2024-08-18 14:19:25</t>
         </is>
       </c>
     </row>
@@ -8372,7 +8372,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:36</t>
+          <t>2024-08-18 14:19:25</t>
         </is>
       </c>
     </row>
@@ -8409,7 +8409,7 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:36</t>
+          <t>2024-08-18 14:19:25</t>
         </is>
       </c>
     </row>
@@ -8446,7 +8446,7 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:36</t>
+          <t>2024-08-18 14:19:25</t>
         </is>
       </c>
     </row>
@@ -8483,7 +8483,7 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:36</t>
+          <t>2024-08-18 14:19:25</t>
         </is>
       </c>
     </row>
@@ -8520,7 +8520,7 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:36</t>
+          <t>2024-08-18 14:19:25</t>
         </is>
       </c>
     </row>
@@ -8557,7 +8557,7 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:36</t>
+          <t>2024-08-18 14:19:25</t>
         </is>
       </c>
     </row>
@@ -8594,7 +8594,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:36</t>
+          <t>2024-08-18 14:19:25</t>
         </is>
       </c>
     </row>
@@ -8631,7 +8631,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:40</t>
+          <t>2024-08-18 14:19:29</t>
         </is>
       </c>
     </row>
@@ -8668,7 +8668,7 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:40</t>
+          <t>2024-08-18 14:19:29</t>
         </is>
       </c>
     </row>
@@ -8705,7 +8705,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:40</t>
+          <t>2024-08-18 14:19:29</t>
         </is>
       </c>
     </row>
@@ -8742,7 +8742,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:40</t>
+          <t>2024-08-18 14:19:29</t>
         </is>
       </c>
     </row>
@@ -8779,7 +8779,7 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:40</t>
+          <t>2024-08-18 14:19:29</t>
         </is>
       </c>
     </row>
@@ -8816,7 +8816,7 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:40</t>
+          <t>2024-08-18 14:19:29</t>
         </is>
       </c>
     </row>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:40</t>
+          <t>2024-08-18 14:19:29</t>
         </is>
       </c>
     </row>
@@ -8890,7 +8890,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:40</t>
+          <t>2024-08-18 14:19:29</t>
         </is>
       </c>
     </row>
@@ -8927,7 +8927,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:40</t>
+          <t>2024-08-18 14:19:29</t>
         </is>
       </c>
     </row>
@@ -8964,7 +8964,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:40</t>
+          <t>2024-08-18 14:19:29</t>
         </is>
       </c>
     </row>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:40</t>
+          <t>2024-08-18 14:19:29</t>
         </is>
       </c>
     </row>
@@ -9038,7 +9038,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:40</t>
+          <t>2024-08-18 14:19:29</t>
         </is>
       </c>
     </row>
@@ -9075,7 +9075,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:40</t>
+          <t>2024-08-18 14:19:29</t>
         </is>
       </c>
     </row>
@@ -9112,7 +9112,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:40</t>
+          <t>2024-08-18 14:19:29</t>
         </is>
       </c>
     </row>
@@ -9149,7 +9149,7 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:40</t>
+          <t>2024-08-18 14:19:29</t>
         </is>
       </c>
     </row>
@@ -9186,7 +9186,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:40</t>
+          <t>2024-08-18 14:19:29</t>
         </is>
       </c>
     </row>
@@ -9223,7 +9223,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:40</t>
+          <t>2024-08-18 14:19:29</t>
         </is>
       </c>
     </row>
@@ -9260,7 +9260,7 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:40</t>
+          <t>2024-08-18 14:19:29</t>
         </is>
       </c>
     </row>
@@ -9297,7 +9297,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:40</t>
+          <t>2024-08-18 14:19:29</t>
         </is>
       </c>
     </row>
@@ -9334,7 +9334,7 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:40</t>
+          <t>2024-08-18 14:19:29</t>
         </is>
       </c>
     </row>
@@ -9371,7 +9371,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:44</t>
+          <t>2024-08-18 14:19:33</t>
         </is>
       </c>
     </row>
@@ -9408,7 +9408,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:44</t>
+          <t>2024-08-18 14:19:33</t>
         </is>
       </c>
     </row>
@@ -9445,7 +9445,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:44</t>
+          <t>2024-08-18 14:19:33</t>
         </is>
       </c>
     </row>
@@ -9482,7 +9482,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:44</t>
+          <t>2024-08-18 14:19:33</t>
         </is>
       </c>
     </row>
@@ -9519,7 +9519,7 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:44</t>
+          <t>2024-08-18 14:19:33</t>
         </is>
       </c>
     </row>
@@ -9556,7 +9556,7 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:44</t>
+          <t>2024-08-18 14:19:33</t>
         </is>
       </c>
     </row>
@@ -9593,7 +9593,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:44</t>
+          <t>2024-08-18 14:19:33</t>
         </is>
       </c>
     </row>
@@ -9630,7 +9630,7 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:44</t>
+          <t>2024-08-18 14:19:33</t>
         </is>
       </c>
     </row>
@@ -9667,7 +9667,7 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:44</t>
+          <t>2024-08-18 14:19:33</t>
         </is>
       </c>
     </row>
@@ -9704,7 +9704,7 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:44</t>
+          <t>2024-08-18 14:19:33</t>
         </is>
       </c>
     </row>
@@ -9741,7 +9741,7 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:44</t>
+          <t>2024-08-18 14:19:33</t>
         </is>
       </c>
     </row>
@@ -9778,7 +9778,7 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:44</t>
+          <t>2024-08-18 14:19:33</t>
         </is>
       </c>
     </row>
@@ -9815,7 +9815,7 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:44</t>
+          <t>2024-08-18 14:19:33</t>
         </is>
       </c>
     </row>
@@ -9852,7 +9852,7 @@
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:44</t>
+          <t>2024-08-18 14:19:33</t>
         </is>
       </c>
     </row>
@@ -9889,7 +9889,7 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:44</t>
+          <t>2024-08-18 14:19:33</t>
         </is>
       </c>
     </row>
@@ -9926,7 +9926,7 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:44</t>
+          <t>2024-08-18 14:19:33</t>
         </is>
       </c>
     </row>
@@ -9963,7 +9963,7 @@
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:44</t>
+          <t>2024-08-18 14:19:33</t>
         </is>
       </c>
     </row>
@@ -10000,7 +10000,7 @@
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:44</t>
+          <t>2024-08-18 14:19:33</t>
         </is>
       </c>
     </row>
@@ -10037,7 +10037,7 @@
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:44</t>
+          <t>2024-08-18 14:19:33</t>
         </is>
       </c>
     </row>
@@ -10074,7 +10074,7 @@
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:44</t>
+          <t>2024-08-18 14:19:33</t>
         </is>
       </c>
     </row>
@@ -10111,7 +10111,7 @@
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:48</t>
+          <t>2024-08-18 14:19:37</t>
         </is>
       </c>
     </row>
@@ -10148,7 +10148,7 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:48</t>
+          <t>2024-08-18 14:19:37</t>
         </is>
       </c>
     </row>
@@ -10185,7 +10185,7 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:48</t>
+          <t>2024-08-18 14:19:37</t>
         </is>
       </c>
     </row>
@@ -10222,7 +10222,7 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:48</t>
+          <t>2024-08-18 14:19:37</t>
         </is>
       </c>
     </row>
@@ -10259,7 +10259,7 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:48</t>
+          <t>2024-08-18 14:19:37</t>
         </is>
       </c>
     </row>
@@ -10296,7 +10296,7 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:48</t>
+          <t>2024-08-18 14:19:37</t>
         </is>
       </c>
     </row>
@@ -10333,7 +10333,7 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:48</t>
+          <t>2024-08-18 14:19:37</t>
         </is>
       </c>
     </row>
@@ -10370,7 +10370,7 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:48</t>
+          <t>2024-08-18 14:19:37</t>
         </is>
       </c>
     </row>
@@ -10407,7 +10407,7 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:48</t>
+          <t>2024-08-18 14:19:37</t>
         </is>
       </c>
     </row>
@@ -10444,7 +10444,7 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:48</t>
+          <t>2024-08-18 14:19:37</t>
         </is>
       </c>
     </row>
@@ -10481,7 +10481,7 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:48</t>
+          <t>2024-08-18 14:19:37</t>
         </is>
       </c>
     </row>
@@ -10518,7 +10518,7 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:48</t>
+          <t>2024-08-18 14:19:37</t>
         </is>
       </c>
     </row>
@@ -10555,7 +10555,7 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:48</t>
+          <t>2024-08-18 14:19:37</t>
         </is>
       </c>
     </row>
@@ -10592,7 +10592,7 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:48</t>
+          <t>2024-08-18 14:19:37</t>
         </is>
       </c>
     </row>
@@ -10629,7 +10629,7 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:48</t>
+          <t>2024-08-18 14:19:37</t>
         </is>
       </c>
     </row>
@@ -10666,7 +10666,7 @@
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:48</t>
+          <t>2024-08-18 14:19:37</t>
         </is>
       </c>
     </row>
@@ -10703,7 +10703,7 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:48</t>
+          <t>2024-08-18 14:19:37</t>
         </is>
       </c>
     </row>
@@ -10740,7 +10740,7 @@
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:48</t>
+          <t>2024-08-18 14:19:37</t>
         </is>
       </c>
     </row>
@@ -10777,7 +10777,7 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:48</t>
+          <t>2024-08-18 14:19:37</t>
         </is>
       </c>
     </row>
@@ -10814,7 +10814,7 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:48</t>
+          <t>2024-08-18 14:19:37</t>
         </is>
       </c>
     </row>
@@ -10851,7 +10851,7 @@
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:51</t>
+          <t>2024-08-18 14:19:40</t>
         </is>
       </c>
     </row>
@@ -10888,7 +10888,7 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:51</t>
+          <t>2024-08-18 14:19:40</t>
         </is>
       </c>
     </row>
@@ -10925,7 +10925,7 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:51</t>
+          <t>2024-08-18 14:19:40</t>
         </is>
       </c>
     </row>
@@ -10962,7 +10962,7 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:51</t>
+          <t>2024-08-18 14:19:40</t>
         </is>
       </c>
     </row>
@@ -10999,7 +10999,7 @@
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:51</t>
+          <t>2024-08-18 14:19:40</t>
         </is>
       </c>
     </row>
@@ -11036,7 +11036,7 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:51</t>
+          <t>2024-08-18 14:19:40</t>
         </is>
       </c>
     </row>
@@ -11073,7 +11073,7 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:51</t>
+          <t>2024-08-18 14:19:40</t>
         </is>
       </c>
     </row>
@@ -11110,7 +11110,7 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:51</t>
+          <t>2024-08-18 14:19:40</t>
         </is>
       </c>
     </row>
@@ -11147,7 +11147,7 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:51</t>
+          <t>2024-08-18 14:19:40</t>
         </is>
       </c>
     </row>
@@ -11184,7 +11184,7 @@
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:51</t>
+          <t>2024-08-18 14:19:40</t>
         </is>
       </c>
     </row>
@@ -11221,7 +11221,7 @@
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:51</t>
+          <t>2024-08-18 14:19:40</t>
         </is>
       </c>
     </row>
@@ -11258,7 +11258,7 @@
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:51</t>
+          <t>2024-08-18 14:19:40</t>
         </is>
       </c>
     </row>
@@ -11295,7 +11295,7 @@
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:51</t>
+          <t>2024-08-18 14:19:40</t>
         </is>
       </c>
     </row>
@@ -11332,7 +11332,7 @@
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:51</t>
+          <t>2024-08-18 14:19:40</t>
         </is>
       </c>
     </row>
@@ -11369,7 +11369,7 @@
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:51</t>
+          <t>2024-08-18 14:19:40</t>
         </is>
       </c>
     </row>
@@ -11406,7 +11406,7 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:51</t>
+          <t>2024-08-18 14:19:40</t>
         </is>
       </c>
     </row>
@@ -11443,7 +11443,7 @@
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:51</t>
+          <t>2024-08-18 14:19:40</t>
         </is>
       </c>
     </row>
@@ -11480,7 +11480,7 @@
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:51</t>
+          <t>2024-08-18 14:19:40</t>
         </is>
       </c>
     </row>
@@ -11517,7 +11517,7 @@
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:51</t>
+          <t>2024-08-18 14:19:40</t>
         </is>
       </c>
     </row>
@@ -11554,7 +11554,7 @@
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:51</t>
+          <t>2024-08-18 14:19:40</t>
         </is>
       </c>
     </row>
@@ -11591,7 +11591,7 @@
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:54</t>
+          <t>2024-08-18 14:19:44</t>
         </is>
       </c>
     </row>
@@ -11628,7 +11628,7 @@
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:54</t>
+          <t>2024-08-18 14:19:44</t>
         </is>
       </c>
     </row>
@@ -11665,7 +11665,7 @@
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:54</t>
+          <t>2024-08-18 14:19:44</t>
         </is>
       </c>
     </row>
@@ -11702,7 +11702,7 @@
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:54</t>
+          <t>2024-08-18 14:19:44</t>
         </is>
       </c>
     </row>
@@ -11739,7 +11739,7 @@
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:54</t>
+          <t>2024-08-18 14:19:44</t>
         </is>
       </c>
     </row>
@@ -11776,7 +11776,7 @@
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:54</t>
+          <t>2024-08-18 14:19:44</t>
         </is>
       </c>
     </row>
@@ -11813,7 +11813,7 @@
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:54</t>
+          <t>2024-08-18 14:19:44</t>
         </is>
       </c>
     </row>
@@ -11850,7 +11850,7 @@
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:54</t>
+          <t>2024-08-18 14:19:44</t>
         </is>
       </c>
     </row>
@@ -11887,7 +11887,7 @@
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:54</t>
+          <t>2024-08-18 14:19:44</t>
         </is>
       </c>
     </row>
@@ -11924,7 +11924,7 @@
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:54</t>
+          <t>2024-08-18 14:19:44</t>
         </is>
       </c>
     </row>
@@ -11961,7 +11961,7 @@
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:54</t>
+          <t>2024-08-18 14:19:44</t>
         </is>
       </c>
     </row>
@@ -11998,7 +11998,7 @@
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:54</t>
+          <t>2024-08-18 14:19:44</t>
         </is>
       </c>
     </row>
@@ -12035,7 +12035,7 @@
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:54</t>
+          <t>2024-08-18 14:19:44</t>
         </is>
       </c>
     </row>
@@ -12072,7 +12072,7 @@
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:54</t>
+          <t>2024-08-18 14:19:44</t>
         </is>
       </c>
     </row>
@@ -12109,7 +12109,7 @@
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:54</t>
+          <t>2024-08-18 14:19:44</t>
         </is>
       </c>
     </row>
@@ -12146,7 +12146,7 @@
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:54</t>
+          <t>2024-08-18 14:19:44</t>
         </is>
       </c>
     </row>
@@ -12183,7 +12183,7 @@
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:54</t>
+          <t>2024-08-18 14:19:44</t>
         </is>
       </c>
     </row>
@@ -12220,7 +12220,7 @@
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:54</t>
+          <t>2024-08-18 14:19:44</t>
         </is>
       </c>
     </row>
@@ -12257,7 +12257,7 @@
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:54</t>
+          <t>2024-08-18 14:19:44</t>
         </is>
       </c>
     </row>
@@ -12294,7 +12294,7 @@
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:54</t>
+          <t>2024-08-18 14:19:44</t>
         </is>
       </c>
     </row>
@@ -12331,7 +12331,7 @@
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:57</t>
+          <t>2024-08-18 14:19:48</t>
         </is>
       </c>
     </row>
@@ -12368,7 +12368,7 @@
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:57</t>
+          <t>2024-08-18 14:19:48</t>
         </is>
       </c>
     </row>
@@ -12405,7 +12405,7 @@
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:57</t>
+          <t>2024-08-18 14:19:48</t>
         </is>
       </c>
     </row>
@@ -12442,7 +12442,7 @@
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:57</t>
+          <t>2024-08-18 14:19:48</t>
         </is>
       </c>
     </row>
@@ -12479,7 +12479,7 @@
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:57</t>
+          <t>2024-08-18 14:19:48</t>
         </is>
       </c>
     </row>
@@ -12516,7 +12516,7 @@
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:57</t>
+          <t>2024-08-18 14:19:48</t>
         </is>
       </c>
     </row>
@@ -12553,7 +12553,7 @@
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:57</t>
+          <t>2024-08-18 14:19:48</t>
         </is>
       </c>
     </row>
@@ -12590,7 +12590,7 @@
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:57</t>
+          <t>2024-08-18 14:19:48</t>
         </is>
       </c>
     </row>
@@ -12627,7 +12627,7 @@
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:57</t>
+          <t>2024-08-18 14:19:48</t>
         </is>
       </c>
     </row>
@@ -12664,7 +12664,7 @@
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:57</t>
+          <t>2024-08-18 14:19:48</t>
         </is>
       </c>
     </row>
@@ -12701,7 +12701,7 @@
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:57</t>
+          <t>2024-08-18 14:19:48</t>
         </is>
       </c>
     </row>
@@ -12738,7 +12738,7 @@
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:57</t>
+          <t>2024-08-18 14:19:48</t>
         </is>
       </c>
     </row>
@@ -12775,7 +12775,7 @@
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:57</t>
+          <t>2024-08-18 14:19:48</t>
         </is>
       </c>
     </row>
@@ -12812,7 +12812,7 @@
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:57</t>
+          <t>2024-08-18 14:19:48</t>
         </is>
       </c>
     </row>
@@ -12849,7 +12849,7 @@
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:57</t>
+          <t>2024-08-18 14:19:48</t>
         </is>
       </c>
     </row>
@@ -12886,7 +12886,7 @@
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:57</t>
+          <t>2024-08-18 14:19:48</t>
         </is>
       </c>
     </row>
@@ -12923,7 +12923,7 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:57</t>
+          <t>2024-08-18 14:19:48</t>
         </is>
       </c>
     </row>
@@ -12960,7 +12960,7 @@
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:57</t>
+          <t>2024-08-18 14:19:48</t>
         </is>
       </c>
     </row>
@@ -12997,7 +12997,7 @@
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:57</t>
+          <t>2024-08-18 14:19:48</t>
         </is>
       </c>
     </row>
@@ -13034,7 +13034,7 @@
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>2024-08-18 13:18:57</t>
+          <t>2024-08-18 14:19:48</t>
         </is>
       </c>
     </row>
@@ -13071,7 +13071,7 @@
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:00</t>
+          <t>2024-08-18 14:19:51</t>
         </is>
       </c>
     </row>
@@ -13108,7 +13108,7 @@
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:00</t>
+          <t>2024-08-18 14:19:51</t>
         </is>
       </c>
     </row>
@@ -13145,7 +13145,7 @@
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:00</t>
+          <t>2024-08-18 14:19:51</t>
         </is>
       </c>
     </row>
@@ -13182,7 +13182,7 @@
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:00</t>
+          <t>2024-08-18 14:19:51</t>
         </is>
       </c>
     </row>
@@ -13219,7 +13219,7 @@
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:00</t>
+          <t>2024-08-18 14:19:51</t>
         </is>
       </c>
     </row>
@@ -13256,7 +13256,7 @@
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:00</t>
+          <t>2024-08-18 14:19:51</t>
         </is>
       </c>
     </row>
@@ -13293,7 +13293,7 @@
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:00</t>
+          <t>2024-08-18 14:19:51</t>
         </is>
       </c>
     </row>
@@ -13330,7 +13330,7 @@
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:00</t>
+          <t>2024-08-18 14:19:51</t>
         </is>
       </c>
     </row>
@@ -13367,7 +13367,7 @@
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:00</t>
+          <t>2024-08-18 14:19:51</t>
         </is>
       </c>
     </row>
@@ -13404,7 +13404,7 @@
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:00</t>
+          <t>2024-08-18 14:19:51</t>
         </is>
       </c>
     </row>
@@ -13441,7 +13441,7 @@
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:00</t>
+          <t>2024-08-18 14:19:51</t>
         </is>
       </c>
     </row>
@@ -13478,7 +13478,7 @@
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:00</t>
+          <t>2024-08-18 14:19:51</t>
         </is>
       </c>
     </row>
@@ -13515,7 +13515,7 @@
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:00</t>
+          <t>2024-08-18 14:19:51</t>
         </is>
       </c>
     </row>
@@ -13552,7 +13552,7 @@
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:00</t>
+          <t>2024-08-18 14:19:51</t>
         </is>
       </c>
     </row>
@@ -13589,7 +13589,7 @@
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:00</t>
+          <t>2024-08-18 14:19:51</t>
         </is>
       </c>
     </row>
@@ -13626,7 +13626,7 @@
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:00</t>
+          <t>2024-08-18 14:19:51</t>
         </is>
       </c>
     </row>
@@ -13663,7 +13663,7 @@
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:00</t>
+          <t>2024-08-18 14:19:51</t>
         </is>
       </c>
     </row>
@@ -13700,7 +13700,7 @@
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:00</t>
+          <t>2024-08-18 14:19:51</t>
         </is>
       </c>
     </row>
@@ -13737,7 +13737,7 @@
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:00</t>
+          <t>2024-08-18 14:19:51</t>
         </is>
       </c>
     </row>
@@ -13774,7 +13774,7 @@
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:00</t>
+          <t>2024-08-18 14:19:51</t>
         </is>
       </c>
     </row>
@@ -13811,7 +13811,7 @@
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:04</t>
+          <t>2024-08-18 14:19:55</t>
         </is>
       </c>
     </row>
@@ -13848,7 +13848,7 @@
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:04</t>
+          <t>2024-08-18 14:19:55</t>
         </is>
       </c>
     </row>
@@ -13885,7 +13885,7 @@
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:04</t>
+          <t>2024-08-18 14:19:55</t>
         </is>
       </c>
     </row>
@@ -13922,7 +13922,7 @@
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:04</t>
+          <t>2024-08-18 14:19:55</t>
         </is>
       </c>
     </row>
@@ -13959,7 +13959,7 @@
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:04</t>
+          <t>2024-08-18 14:19:55</t>
         </is>
       </c>
     </row>
@@ -13996,7 +13996,7 @@
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:04</t>
+          <t>2024-08-18 14:19:55</t>
         </is>
       </c>
     </row>
@@ -14033,7 +14033,7 @@
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:04</t>
+          <t>2024-08-18 14:19:55</t>
         </is>
       </c>
     </row>
@@ -14070,7 +14070,7 @@
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:04</t>
+          <t>2024-08-18 14:19:55</t>
         </is>
       </c>
     </row>
@@ -14107,7 +14107,7 @@
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:04</t>
+          <t>2024-08-18 14:19:55</t>
         </is>
       </c>
     </row>
@@ -14144,7 +14144,7 @@
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:04</t>
+          <t>2024-08-18 14:19:55</t>
         </is>
       </c>
     </row>
@@ -14181,7 +14181,7 @@
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:04</t>
+          <t>2024-08-18 14:19:55</t>
         </is>
       </c>
     </row>
@@ -14218,7 +14218,7 @@
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:04</t>
+          <t>2024-08-18 14:19:55</t>
         </is>
       </c>
     </row>
@@ -14255,7 +14255,7 @@
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:04</t>
+          <t>2024-08-18 14:19:55</t>
         </is>
       </c>
     </row>
@@ -14292,7 +14292,7 @@
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:04</t>
+          <t>2024-08-18 14:19:55</t>
         </is>
       </c>
     </row>
@@ -14329,7 +14329,7 @@
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:04</t>
+          <t>2024-08-18 14:19:55</t>
         </is>
       </c>
     </row>
@@ -14366,7 +14366,7 @@
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:04</t>
+          <t>2024-08-18 14:19:55</t>
         </is>
       </c>
     </row>
@@ -14403,7 +14403,7 @@
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:04</t>
+          <t>2024-08-18 14:19:55</t>
         </is>
       </c>
     </row>
@@ -14440,7 +14440,7 @@
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:04</t>
+          <t>2024-08-18 14:19:55</t>
         </is>
       </c>
     </row>
@@ -14477,7 +14477,7 @@
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:04</t>
+          <t>2024-08-18 14:19:55</t>
         </is>
       </c>
     </row>
@@ -14514,7 +14514,7 @@
       </c>
       <c r="G381" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:04</t>
+          <t>2024-08-18 14:19:55</t>
         </is>
       </c>
     </row>
@@ -14551,7 +14551,7 @@
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:08</t>
+          <t>2024-08-18 14:19:59</t>
         </is>
       </c>
     </row>
@@ -14588,7 +14588,7 @@
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:08</t>
+          <t>2024-08-18 14:19:59</t>
         </is>
       </c>
     </row>
@@ -14625,7 +14625,7 @@
       </c>
       <c r="G384" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:08</t>
+          <t>2024-08-18 14:19:59</t>
         </is>
       </c>
     </row>
@@ -14662,7 +14662,7 @@
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:08</t>
+          <t>2024-08-18 14:19:59</t>
         </is>
       </c>
     </row>
@@ -14699,7 +14699,7 @@
       </c>
       <c r="G386" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:08</t>
+          <t>2024-08-18 14:19:59</t>
         </is>
       </c>
     </row>
@@ -14736,7 +14736,7 @@
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:08</t>
+          <t>2024-08-18 14:19:59</t>
         </is>
       </c>
     </row>
@@ -14773,7 +14773,7 @@
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:08</t>
+          <t>2024-08-18 14:19:59</t>
         </is>
       </c>
     </row>
@@ -14810,7 +14810,7 @@
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:08</t>
+          <t>2024-08-18 14:19:59</t>
         </is>
       </c>
     </row>
@@ -14847,7 +14847,7 @@
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:08</t>
+          <t>2024-08-18 14:19:59</t>
         </is>
       </c>
     </row>
@@ -14884,7 +14884,7 @@
       </c>
       <c r="G391" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:08</t>
+          <t>2024-08-18 14:19:59</t>
         </is>
       </c>
     </row>
@@ -14921,7 +14921,7 @@
       </c>
       <c r="G392" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:08</t>
+          <t>2024-08-18 14:19:59</t>
         </is>
       </c>
     </row>
@@ -14958,7 +14958,7 @@
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:08</t>
+          <t>2024-08-18 14:19:59</t>
         </is>
       </c>
     </row>
@@ -14995,7 +14995,7 @@
       </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:08</t>
+          <t>2024-08-18 14:19:59</t>
         </is>
       </c>
     </row>
@@ -15032,7 +15032,7 @@
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:08</t>
+          <t>2024-08-18 14:19:59</t>
         </is>
       </c>
     </row>
@@ -15069,7 +15069,7 @@
       </c>
       <c r="G396" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:08</t>
+          <t>2024-08-18 14:19:59</t>
         </is>
       </c>
     </row>
@@ -15106,7 +15106,7 @@
       </c>
       <c r="G397" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:08</t>
+          <t>2024-08-18 14:19:59</t>
         </is>
       </c>
     </row>
@@ -15143,7 +15143,7 @@
       </c>
       <c r="G398" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:08</t>
+          <t>2024-08-18 14:19:59</t>
         </is>
       </c>
     </row>
@@ -15180,7 +15180,7 @@
       </c>
       <c r="G399" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:08</t>
+          <t>2024-08-18 14:19:59</t>
         </is>
       </c>
     </row>
@@ -15217,7 +15217,7 @@
       </c>
       <c r="G400" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:08</t>
+          <t>2024-08-18 14:19:59</t>
         </is>
       </c>
     </row>
@@ -15254,7 +15254,7 @@
       </c>
       <c r="G401" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:08</t>
+          <t>2024-08-18 14:19:59</t>
         </is>
       </c>
     </row>
@@ -15291,7 +15291,7 @@
       </c>
       <c r="G402" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:12</t>
+          <t>2024-08-18 14:20:03</t>
         </is>
       </c>
     </row>
@@ -15328,7 +15328,7 @@
       </c>
       <c r="G403" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:12</t>
+          <t>2024-08-18 14:20:03</t>
         </is>
       </c>
     </row>
@@ -15365,7 +15365,7 @@
       </c>
       <c r="G404" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:12</t>
+          <t>2024-08-18 14:20:03</t>
         </is>
       </c>
     </row>
@@ -15402,7 +15402,7 @@
       </c>
       <c r="G405" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:12</t>
+          <t>2024-08-18 14:20:03</t>
         </is>
       </c>
     </row>
@@ -15439,7 +15439,7 @@
       </c>
       <c r="G406" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:12</t>
+          <t>2024-08-18 14:20:03</t>
         </is>
       </c>
     </row>
@@ -15476,7 +15476,7 @@
       </c>
       <c r="G407" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:12</t>
+          <t>2024-08-18 14:20:03</t>
         </is>
       </c>
     </row>
@@ -15513,7 +15513,7 @@
       </c>
       <c r="G408" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:12</t>
+          <t>2024-08-18 14:20:03</t>
         </is>
       </c>
     </row>
@@ -15550,7 +15550,7 @@
       </c>
       <c r="G409" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:12</t>
+          <t>2024-08-18 14:20:03</t>
         </is>
       </c>
     </row>
@@ -15587,7 +15587,7 @@
       </c>
       <c r="G410" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:12</t>
+          <t>2024-08-18 14:20:03</t>
         </is>
       </c>
     </row>
@@ -15624,7 +15624,7 @@
       </c>
       <c r="G411" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:12</t>
+          <t>2024-08-18 14:20:03</t>
         </is>
       </c>
     </row>
@@ -15661,7 +15661,7 @@
       </c>
       <c r="G412" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:12</t>
+          <t>2024-08-18 14:20:03</t>
         </is>
       </c>
     </row>
@@ -15698,7 +15698,7 @@
       </c>
       <c r="G413" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:12</t>
+          <t>2024-08-18 14:20:03</t>
         </is>
       </c>
     </row>
@@ -15735,7 +15735,7 @@
       </c>
       <c r="G414" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:12</t>
+          <t>2024-08-18 14:20:03</t>
         </is>
       </c>
     </row>
@@ -15772,7 +15772,7 @@
       </c>
       <c r="G415" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:12</t>
+          <t>2024-08-18 14:20:03</t>
         </is>
       </c>
     </row>
@@ -15809,7 +15809,7 @@
       </c>
       <c r="G416" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:12</t>
+          <t>2024-08-18 14:20:03</t>
         </is>
       </c>
     </row>
@@ -15846,7 +15846,7 @@
       </c>
       <c r="G417" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:12</t>
+          <t>2024-08-18 14:20:03</t>
         </is>
       </c>
     </row>
@@ -15883,7 +15883,7 @@
       </c>
       <c r="G418" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:12</t>
+          <t>2024-08-18 14:20:03</t>
         </is>
       </c>
     </row>
@@ -15920,7 +15920,7 @@
       </c>
       <c r="G419" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:12</t>
+          <t>2024-08-18 14:20:03</t>
         </is>
       </c>
     </row>
@@ -15957,7 +15957,7 @@
       </c>
       <c r="G420" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:12</t>
+          <t>2024-08-18 14:20:03</t>
         </is>
       </c>
     </row>
@@ -15994,7 +15994,7 @@
       </c>
       <c r="G421" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:12</t>
+          <t>2024-08-18 14:20:03</t>
         </is>
       </c>
     </row>
@@ -16031,7 +16031,7 @@
       </c>
       <c r="G422" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:16</t>
+          <t>2024-08-18 14:20:06</t>
         </is>
       </c>
     </row>
@@ -16068,7 +16068,7 @@
       </c>
       <c r="G423" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:16</t>
+          <t>2024-08-18 14:20:06</t>
         </is>
       </c>
     </row>
@@ -16105,7 +16105,7 @@
       </c>
       <c r="G424" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:16</t>
+          <t>2024-08-18 14:20:06</t>
         </is>
       </c>
     </row>
@@ -16142,7 +16142,7 @@
       </c>
       <c r="G425" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:16</t>
+          <t>2024-08-18 14:20:06</t>
         </is>
       </c>
     </row>
@@ -16179,7 +16179,7 @@
       </c>
       <c r="G426" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:16</t>
+          <t>2024-08-18 14:20:06</t>
         </is>
       </c>
     </row>
@@ -16216,7 +16216,7 @@
       </c>
       <c r="G427" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:16</t>
+          <t>2024-08-18 14:20:06</t>
         </is>
       </c>
     </row>
@@ -16253,7 +16253,7 @@
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:16</t>
+          <t>2024-08-18 14:20:06</t>
         </is>
       </c>
     </row>
@@ -16290,7 +16290,7 @@
       </c>
       <c r="G429" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:16</t>
+          <t>2024-08-18 14:20:06</t>
         </is>
       </c>
     </row>
@@ -16327,7 +16327,7 @@
       </c>
       <c r="G430" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:16</t>
+          <t>2024-08-18 14:20:06</t>
         </is>
       </c>
     </row>
@@ -16364,7 +16364,7 @@
       </c>
       <c r="G431" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:16</t>
+          <t>2024-08-18 14:20:06</t>
         </is>
       </c>
     </row>
@@ -16401,7 +16401,7 @@
       </c>
       <c r="G432" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:16</t>
+          <t>2024-08-18 14:20:06</t>
         </is>
       </c>
     </row>
@@ -16438,7 +16438,7 @@
       </c>
       <c r="G433" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:16</t>
+          <t>2024-08-18 14:20:06</t>
         </is>
       </c>
     </row>
@@ -16475,7 +16475,7 @@
       </c>
       <c r="G434" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:16</t>
+          <t>2024-08-18 14:20:06</t>
         </is>
       </c>
     </row>
@@ -16512,7 +16512,7 @@
       </c>
       <c r="G435" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:16</t>
+          <t>2024-08-18 14:20:06</t>
         </is>
       </c>
     </row>
@@ -16549,7 +16549,7 @@
       </c>
       <c r="G436" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:16</t>
+          <t>2024-08-18 14:20:06</t>
         </is>
       </c>
     </row>
@@ -16586,7 +16586,7 @@
       </c>
       <c r="G437" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:16</t>
+          <t>2024-08-18 14:20:06</t>
         </is>
       </c>
     </row>
@@ -16623,7 +16623,7 @@
       </c>
       <c r="G438" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:16</t>
+          <t>2024-08-18 14:20:06</t>
         </is>
       </c>
     </row>
@@ -16660,7 +16660,7 @@
       </c>
       <c r="G439" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:16</t>
+          <t>2024-08-18 14:20:06</t>
         </is>
       </c>
     </row>
@@ -16697,7 +16697,7 @@
       </c>
       <c r="G440" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:16</t>
+          <t>2024-08-18 14:20:06</t>
         </is>
       </c>
     </row>
@@ -16734,7 +16734,7 @@
       </c>
       <c r="G441" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:16</t>
+          <t>2024-08-18 14:20:06</t>
         </is>
       </c>
     </row>
@@ -16771,7 +16771,7 @@
       </c>
       <c r="G442" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:20</t>
+          <t>2024-08-18 14:20:10</t>
         </is>
       </c>
     </row>
@@ -16808,7 +16808,7 @@
       </c>
       <c r="G443" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:20</t>
+          <t>2024-08-18 14:20:10</t>
         </is>
       </c>
     </row>
@@ -16845,7 +16845,7 @@
       </c>
       <c r="G444" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:20</t>
+          <t>2024-08-18 14:20:10</t>
         </is>
       </c>
     </row>
@@ -16882,7 +16882,7 @@
       </c>
       <c r="G445" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:20</t>
+          <t>2024-08-18 14:20:10</t>
         </is>
       </c>
     </row>
@@ -16919,7 +16919,7 @@
       </c>
       <c r="G446" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:20</t>
+          <t>2024-08-18 14:20:10</t>
         </is>
       </c>
     </row>
@@ -16956,7 +16956,7 @@
       </c>
       <c r="G447" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:20</t>
+          <t>2024-08-18 14:20:10</t>
         </is>
       </c>
     </row>
@@ -16993,7 +16993,7 @@
       </c>
       <c r="G448" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:20</t>
+          <t>2024-08-18 14:20:10</t>
         </is>
       </c>
     </row>
@@ -17030,7 +17030,7 @@
       </c>
       <c r="G449" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:20</t>
+          <t>2024-08-18 14:20:10</t>
         </is>
       </c>
     </row>
@@ -17067,7 +17067,7 @@
       </c>
       <c r="G450" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:20</t>
+          <t>2024-08-18 14:20:10</t>
         </is>
       </c>
     </row>
@@ -17104,7 +17104,7 @@
       </c>
       <c r="G451" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:20</t>
+          <t>2024-08-18 14:20:10</t>
         </is>
       </c>
     </row>
@@ -17141,7 +17141,7 @@
       </c>
       <c r="G452" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:20</t>
+          <t>2024-08-18 14:20:10</t>
         </is>
       </c>
     </row>
@@ -17178,7 +17178,7 @@
       </c>
       <c r="G453" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:20</t>
+          <t>2024-08-18 14:20:10</t>
         </is>
       </c>
     </row>
@@ -17215,7 +17215,7 @@
       </c>
       <c r="G454" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:20</t>
+          <t>2024-08-18 14:20:10</t>
         </is>
       </c>
     </row>
@@ -17252,7 +17252,7 @@
       </c>
       <c r="G455" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:20</t>
+          <t>2024-08-18 14:20:10</t>
         </is>
       </c>
     </row>
@@ -17289,7 +17289,7 @@
       </c>
       <c r="G456" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:20</t>
+          <t>2024-08-18 14:20:10</t>
         </is>
       </c>
     </row>
@@ -17326,7 +17326,7 @@
       </c>
       <c r="G457" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:20</t>
+          <t>2024-08-18 14:20:10</t>
         </is>
       </c>
     </row>
@@ -17363,7 +17363,7 @@
       </c>
       <c r="G458" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:20</t>
+          <t>2024-08-18 14:20:10</t>
         </is>
       </c>
     </row>
@@ -17400,7 +17400,7 @@
       </c>
       <c r="G459" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:20</t>
+          <t>2024-08-18 14:20:10</t>
         </is>
       </c>
     </row>
@@ -17437,7 +17437,7 @@
       </c>
       <c r="G460" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:20</t>
+          <t>2024-08-18 14:20:10</t>
         </is>
       </c>
     </row>
@@ -17474,7 +17474,7 @@
       </c>
       <c r="G461" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:20</t>
+          <t>2024-08-18 14:20:10</t>
         </is>
       </c>
     </row>
@@ -17511,7 +17511,7 @@
       </c>
       <c r="G462" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:24</t>
+          <t>2024-08-18 14:20:13</t>
         </is>
       </c>
     </row>
@@ -17548,7 +17548,7 @@
       </c>
       <c r="G463" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:24</t>
+          <t>2024-08-18 14:20:13</t>
         </is>
       </c>
     </row>
@@ -17585,7 +17585,7 @@
       </c>
       <c r="G464" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:24</t>
+          <t>2024-08-18 14:20:13</t>
         </is>
       </c>
     </row>
@@ -17622,7 +17622,7 @@
       </c>
       <c r="G465" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:24</t>
+          <t>2024-08-18 14:20:13</t>
         </is>
       </c>
     </row>
@@ -17659,7 +17659,7 @@
       </c>
       <c r="G466" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:24</t>
+          <t>2024-08-18 14:20:13</t>
         </is>
       </c>
     </row>
@@ -17696,7 +17696,7 @@
       </c>
       <c r="G467" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:24</t>
+          <t>2024-08-18 14:20:13</t>
         </is>
       </c>
     </row>
@@ -17733,7 +17733,7 @@
       </c>
       <c r="G468" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:24</t>
+          <t>2024-08-18 14:20:13</t>
         </is>
       </c>
     </row>
@@ -17770,7 +17770,7 @@
       </c>
       <c r="G469" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:24</t>
+          <t>2024-08-18 14:20:13</t>
         </is>
       </c>
     </row>
@@ -17807,7 +17807,7 @@
       </c>
       <c r="G470" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:24</t>
+          <t>2024-08-18 14:20:13</t>
         </is>
       </c>
     </row>
@@ -17844,7 +17844,7 @@
       </c>
       <c r="G471" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:24</t>
+          <t>2024-08-18 14:20:13</t>
         </is>
       </c>
     </row>
@@ -17881,7 +17881,7 @@
       </c>
       <c r="G472" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:24</t>
+          <t>2024-08-18 14:20:13</t>
         </is>
       </c>
     </row>
@@ -17918,7 +17918,7 @@
       </c>
       <c r="G473" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:24</t>
+          <t>2024-08-18 14:20:13</t>
         </is>
       </c>
     </row>
@@ -17955,7 +17955,7 @@
       </c>
       <c r="G474" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:24</t>
+          <t>2024-08-18 14:20:13</t>
         </is>
       </c>
     </row>
@@ -17992,7 +17992,7 @@
       </c>
       <c r="G475" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:24</t>
+          <t>2024-08-18 14:20:13</t>
         </is>
       </c>
     </row>
@@ -18029,7 +18029,7 @@
       </c>
       <c r="G476" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:24</t>
+          <t>2024-08-18 14:20:13</t>
         </is>
       </c>
     </row>
@@ -18066,7 +18066,7 @@
       </c>
       <c r="G477" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:24</t>
+          <t>2024-08-18 14:20:13</t>
         </is>
       </c>
     </row>
@@ -18103,7 +18103,7 @@
       </c>
       <c r="G478" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:24</t>
+          <t>2024-08-18 14:20:13</t>
         </is>
       </c>
     </row>
@@ -18140,7 +18140,7 @@
       </c>
       <c r="G479" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:24</t>
+          <t>2024-08-18 14:20:13</t>
         </is>
       </c>
     </row>
@@ -18177,7 +18177,7 @@
       </c>
       <c r="G480" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:24</t>
+          <t>2024-08-18 14:20:13</t>
         </is>
       </c>
     </row>
@@ -18214,7 +18214,7 @@
       </c>
       <c r="G481" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:24</t>
+          <t>2024-08-18 14:20:13</t>
         </is>
       </c>
     </row>
@@ -18251,7 +18251,7 @@
       </c>
       <c r="G482" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:27</t>
+          <t>2024-08-18 14:20:16</t>
         </is>
       </c>
     </row>
@@ -18288,7 +18288,7 @@
       </c>
       <c r="G483" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:27</t>
+          <t>2024-08-18 14:20:16</t>
         </is>
       </c>
     </row>
@@ -18325,7 +18325,7 @@
       </c>
       <c r="G484" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:27</t>
+          <t>2024-08-18 14:20:16</t>
         </is>
       </c>
     </row>
@@ -18362,7 +18362,7 @@
       </c>
       <c r="G485" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:27</t>
+          <t>2024-08-18 14:20:16</t>
         </is>
       </c>
     </row>
@@ -18399,7 +18399,7 @@
       </c>
       <c r="G486" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:27</t>
+          <t>2024-08-18 14:20:16</t>
         </is>
       </c>
     </row>
@@ -18436,7 +18436,7 @@
       </c>
       <c r="G487" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:27</t>
+          <t>2024-08-18 14:20:16</t>
         </is>
       </c>
     </row>
@@ -18473,7 +18473,7 @@
       </c>
       <c r="G488" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:27</t>
+          <t>2024-08-18 14:20:16</t>
         </is>
       </c>
     </row>
@@ -18510,7 +18510,7 @@
       </c>
       <c r="G489" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:27</t>
+          <t>2024-08-18 14:20:16</t>
         </is>
       </c>
     </row>
@@ -18547,7 +18547,7 @@
       </c>
       <c r="G490" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:27</t>
+          <t>2024-08-18 14:20:16</t>
         </is>
       </c>
     </row>
@@ -18584,7 +18584,7 @@
       </c>
       <c r="G491" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:27</t>
+          <t>2024-08-18 14:20:16</t>
         </is>
       </c>
     </row>
@@ -18621,7 +18621,7 @@
       </c>
       <c r="G492" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:27</t>
+          <t>2024-08-18 14:20:16</t>
         </is>
       </c>
     </row>
@@ -18658,7 +18658,7 @@
       </c>
       <c r="G493" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:27</t>
+          <t>2024-08-18 14:20:16</t>
         </is>
       </c>
     </row>
@@ -18695,7 +18695,7 @@
       </c>
       <c r="G494" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:27</t>
+          <t>2024-08-18 14:20:16</t>
         </is>
       </c>
     </row>
@@ -18732,7 +18732,7 @@
       </c>
       <c r="G495" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:27</t>
+          <t>2024-08-18 14:20:16</t>
         </is>
       </c>
     </row>
@@ -18769,7 +18769,7 @@
       </c>
       <c r="G496" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:27</t>
+          <t>2024-08-18 14:20:16</t>
         </is>
       </c>
     </row>
@@ -18806,7 +18806,7 @@
       </c>
       <c r="G497" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:27</t>
+          <t>2024-08-18 14:20:16</t>
         </is>
       </c>
     </row>
@@ -18843,7 +18843,7 @@
       </c>
       <c r="G498" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:27</t>
+          <t>2024-08-18 14:20:16</t>
         </is>
       </c>
     </row>
@@ -18880,7 +18880,7 @@
       </c>
       <c r="G499" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:28</t>
+          <t>2024-08-18 14:20:16</t>
         </is>
       </c>
     </row>
@@ -18917,7 +18917,7 @@
       </c>
       <c r="G500" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:28</t>
+          <t>2024-08-18 14:20:16</t>
         </is>
       </c>
     </row>
@@ -18954,7 +18954,7 @@
       </c>
       <c r="G501" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:28</t>
+          <t>2024-08-18 14:20:16</t>
         </is>
       </c>
     </row>
@@ -18991,7 +18991,7 @@
       </c>
       <c r="G502" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:31</t>
+          <t>2024-08-18 14:20:20</t>
         </is>
       </c>
     </row>
@@ -19028,7 +19028,7 @@
       </c>
       <c r="G503" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:31</t>
+          <t>2024-08-18 14:20:20</t>
         </is>
       </c>
     </row>
@@ -19065,7 +19065,7 @@
       </c>
       <c r="G504" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:31</t>
+          <t>2024-08-18 14:20:20</t>
         </is>
       </c>
     </row>
@@ -19102,7 +19102,7 @@
       </c>
       <c r="G505" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:31</t>
+          <t>2024-08-18 14:20:20</t>
         </is>
       </c>
     </row>
@@ -19139,7 +19139,7 @@
       </c>
       <c r="G506" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:31</t>
+          <t>2024-08-18 14:20:20</t>
         </is>
       </c>
     </row>
@@ -19176,7 +19176,7 @@
       </c>
       <c r="G507" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:31</t>
+          <t>2024-08-18 14:20:20</t>
         </is>
       </c>
     </row>
@@ -19213,7 +19213,7 @@
       </c>
       <c r="G508" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:31</t>
+          <t>2024-08-18 14:20:20</t>
         </is>
       </c>
     </row>
@@ -19250,7 +19250,7 @@
       </c>
       <c r="G509" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:31</t>
+          <t>2024-08-18 14:20:20</t>
         </is>
       </c>
     </row>
@@ -19287,7 +19287,7 @@
       </c>
       <c r="G510" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:31</t>
+          <t>2024-08-18 14:20:20</t>
         </is>
       </c>
     </row>
@@ -19324,7 +19324,7 @@
       </c>
       <c r="G511" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:31</t>
+          <t>2024-08-18 14:20:20</t>
         </is>
       </c>
     </row>
@@ -19361,7 +19361,7 @@
       </c>
       <c r="G512" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:31</t>
+          <t>2024-08-18 14:20:20</t>
         </is>
       </c>
     </row>
@@ -19398,7 +19398,7 @@
       </c>
       <c r="G513" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:31</t>
+          <t>2024-08-18 14:20:20</t>
         </is>
       </c>
     </row>
@@ -19435,7 +19435,7 @@
       </c>
       <c r="G514" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:31</t>
+          <t>2024-08-18 14:20:20</t>
         </is>
       </c>
     </row>
@@ -19472,7 +19472,7 @@
       </c>
       <c r="G515" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:31</t>
+          <t>2024-08-18 14:20:20</t>
         </is>
       </c>
     </row>
@@ -19509,7 +19509,7 @@
       </c>
       <c r="G516" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:31</t>
+          <t>2024-08-18 14:20:20</t>
         </is>
       </c>
     </row>
@@ -19546,7 +19546,7 @@
       </c>
       <c r="G517" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:31</t>
+          <t>2024-08-18 14:20:20</t>
         </is>
       </c>
     </row>
@@ -19583,7 +19583,7 @@
       </c>
       <c r="G518" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:31</t>
+          <t>2024-08-18 14:20:20</t>
         </is>
       </c>
     </row>
@@ -19620,7 +19620,7 @@
       </c>
       <c r="G519" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:31</t>
+          <t>2024-08-18 14:20:20</t>
         </is>
       </c>
     </row>
@@ -19657,7 +19657,7 @@
       </c>
       <c r="G520" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:31</t>
+          <t>2024-08-18 14:20:20</t>
         </is>
       </c>
     </row>
@@ -19694,7 +19694,7 @@
       </c>
       <c r="G521" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:31</t>
+          <t>2024-08-18 14:20:20</t>
         </is>
       </c>
     </row>
@@ -19731,7 +19731,7 @@
       </c>
       <c r="G522" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:35</t>
+          <t>2024-08-18 14:20:23</t>
         </is>
       </c>
     </row>
@@ -19768,7 +19768,7 @@
       </c>
       <c r="G523" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:35</t>
+          <t>2024-08-18 14:20:23</t>
         </is>
       </c>
     </row>
@@ -19805,7 +19805,7 @@
       </c>
       <c r="G524" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:35</t>
+          <t>2024-08-18 14:20:23</t>
         </is>
       </c>
     </row>
@@ -19842,7 +19842,7 @@
       </c>
       <c r="G525" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:35</t>
+          <t>2024-08-18 14:20:23</t>
         </is>
       </c>
     </row>
@@ -19879,7 +19879,7 @@
       </c>
       <c r="G526" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:35</t>
+          <t>2024-08-18 14:20:23</t>
         </is>
       </c>
     </row>
@@ -19916,7 +19916,7 @@
       </c>
       <c r="G527" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:35</t>
+          <t>2024-08-18 14:20:23</t>
         </is>
       </c>
     </row>
@@ -19953,7 +19953,7 @@
       </c>
       <c r="G528" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:35</t>
+          <t>2024-08-18 14:20:23</t>
         </is>
       </c>
     </row>
@@ -19990,7 +19990,7 @@
       </c>
       <c r="G529" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:35</t>
+          <t>2024-08-18 14:20:23</t>
         </is>
       </c>
     </row>
@@ -20027,7 +20027,7 @@
       </c>
       <c r="G530" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:35</t>
+          <t>2024-08-18 14:20:23</t>
         </is>
       </c>
     </row>
@@ -20064,7 +20064,7 @@
       </c>
       <c r="G531" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:35</t>
+          <t>2024-08-18 14:20:23</t>
         </is>
       </c>
     </row>
@@ -20101,7 +20101,7 @@
       </c>
       <c r="G532" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:35</t>
+          <t>2024-08-18 14:20:23</t>
         </is>
       </c>
     </row>
@@ -20138,7 +20138,7 @@
       </c>
       <c r="G533" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:35</t>
+          <t>2024-08-18 14:20:23</t>
         </is>
       </c>
     </row>
@@ -20175,7 +20175,7 @@
       </c>
       <c r="G534" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:35</t>
+          <t>2024-08-18 14:20:23</t>
         </is>
       </c>
     </row>
@@ -20212,7 +20212,7 @@
       </c>
       <c r="G535" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:35</t>
+          <t>2024-08-18 14:20:23</t>
         </is>
       </c>
     </row>
@@ -20249,7 +20249,7 @@
       </c>
       <c r="G536" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:35</t>
+          <t>2024-08-18 14:20:23</t>
         </is>
       </c>
     </row>
@@ -20286,7 +20286,7 @@
       </c>
       <c r="G537" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:35</t>
+          <t>2024-08-18 14:20:23</t>
         </is>
       </c>
     </row>
@@ -20323,7 +20323,7 @@
       </c>
       <c r="G538" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:35</t>
+          <t>2024-08-18 14:20:23</t>
         </is>
       </c>
     </row>
@@ -20360,7 +20360,7 @@
       </c>
       <c r="G539" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:35</t>
+          <t>2024-08-18 14:20:23</t>
         </is>
       </c>
     </row>
@@ -20397,7 +20397,7 @@
       </c>
       <c r="G540" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:35</t>
+          <t>2024-08-18 14:20:23</t>
         </is>
       </c>
     </row>
@@ -20434,7 +20434,7 @@
       </c>
       <c r="G541" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:35</t>
+          <t>2024-08-18 14:20:23</t>
         </is>
       </c>
     </row>
@@ -20471,7 +20471,7 @@
       </c>
       <c r="G542" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:39</t>
+          <t>2024-08-18 14:20:27</t>
         </is>
       </c>
     </row>
@@ -20508,7 +20508,7 @@
       </c>
       <c r="G543" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:39</t>
+          <t>2024-08-18 14:20:27</t>
         </is>
       </c>
     </row>
@@ -20545,7 +20545,7 @@
       </c>
       <c r="G544" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:39</t>
+          <t>2024-08-18 14:20:27</t>
         </is>
       </c>
     </row>
@@ -20582,7 +20582,7 @@
       </c>
       <c r="G545" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:39</t>
+          <t>2024-08-18 14:20:27</t>
         </is>
       </c>
     </row>
@@ -20619,7 +20619,7 @@
       </c>
       <c r="G546" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:39</t>
+          <t>2024-08-18 14:20:27</t>
         </is>
       </c>
     </row>
@@ -20656,7 +20656,7 @@
       </c>
       <c r="G547" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:39</t>
+          <t>2024-08-18 14:20:27</t>
         </is>
       </c>
     </row>
@@ -20693,7 +20693,7 @@
       </c>
       <c r="G548" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:39</t>
+          <t>2024-08-18 14:20:27</t>
         </is>
       </c>
     </row>
@@ -20730,7 +20730,7 @@
       </c>
       <c r="G549" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:39</t>
+          <t>2024-08-18 14:20:27</t>
         </is>
       </c>
     </row>
@@ -20767,7 +20767,7 @@
       </c>
       <c r="G550" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:39</t>
+          <t>2024-08-18 14:20:27</t>
         </is>
       </c>
     </row>
@@ -20804,7 +20804,7 @@
       </c>
       <c r="G551" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:39</t>
+          <t>2024-08-18 14:20:27</t>
         </is>
       </c>
     </row>
@@ -20841,7 +20841,7 @@
       </c>
       <c r="G552" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:39</t>
+          <t>2024-08-18 14:20:27</t>
         </is>
       </c>
     </row>
@@ -20878,7 +20878,7 @@
       </c>
       <c r="G553" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:39</t>
+          <t>2024-08-18 14:20:27</t>
         </is>
       </c>
     </row>
@@ -20915,7 +20915,7 @@
       </c>
       <c r="G554" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:39</t>
+          <t>2024-08-18 14:20:27</t>
         </is>
       </c>
     </row>
@@ -20952,7 +20952,7 @@
       </c>
       <c r="G555" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:39</t>
+          <t>2024-08-18 14:20:27</t>
         </is>
       </c>
     </row>
@@ -20989,7 +20989,7 @@
       </c>
       <c r="G556" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:39</t>
+          <t>2024-08-18 14:20:27</t>
         </is>
       </c>
     </row>
@@ -21026,7 +21026,7 @@
       </c>
       <c r="G557" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:39</t>
+          <t>2024-08-18 14:20:27</t>
         </is>
       </c>
     </row>
@@ -21063,7 +21063,7 @@
       </c>
       <c r="G558" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:39</t>
+          <t>2024-08-18 14:20:27</t>
         </is>
       </c>
     </row>
@@ -21100,7 +21100,7 @@
       </c>
       <c r="G559" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:39</t>
+          <t>2024-08-18 14:20:27</t>
         </is>
       </c>
     </row>
@@ -21137,7 +21137,7 @@
       </c>
       <c r="G560" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:39</t>
+          <t>2024-08-18 14:20:27</t>
         </is>
       </c>
     </row>
@@ -21174,7 +21174,7 @@
       </c>
       <c r="G561" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:39</t>
+          <t>2024-08-18 14:20:27</t>
         </is>
       </c>
     </row>
@@ -21211,7 +21211,7 @@
       </c>
       <c r="G562" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:43</t>
+          <t>2024-08-18 14:20:31</t>
         </is>
       </c>
     </row>
@@ -21248,7 +21248,7 @@
       </c>
       <c r="G563" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:43</t>
+          <t>2024-08-18 14:20:31</t>
         </is>
       </c>
     </row>
@@ -21285,7 +21285,7 @@
       </c>
       <c r="G564" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:43</t>
+          <t>2024-08-18 14:20:31</t>
         </is>
       </c>
     </row>
@@ -21322,7 +21322,7 @@
       </c>
       <c r="G565" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:43</t>
+          <t>2024-08-18 14:20:31</t>
         </is>
       </c>
     </row>
@@ -21359,7 +21359,7 @@
       </c>
       <c r="G566" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:43</t>
+          <t>2024-08-18 14:20:31</t>
         </is>
       </c>
     </row>
@@ -21396,7 +21396,7 @@
       </c>
       <c r="G567" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:43</t>
+          <t>2024-08-18 14:20:31</t>
         </is>
       </c>
     </row>
@@ -21433,7 +21433,7 @@
       </c>
       <c r="G568" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:43</t>
+          <t>2024-08-18 14:20:31</t>
         </is>
       </c>
     </row>
@@ -21470,7 +21470,7 @@
       </c>
       <c r="G569" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:43</t>
+          <t>2024-08-18 14:20:31</t>
         </is>
       </c>
     </row>
@@ -21507,7 +21507,7 @@
       </c>
       <c r="G570" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:43</t>
+          <t>2024-08-18 14:20:31</t>
         </is>
       </c>
     </row>
@@ -21544,7 +21544,7 @@
       </c>
       <c r="G571" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:43</t>
+          <t>2024-08-18 14:20:31</t>
         </is>
       </c>
     </row>
@@ -21581,7 +21581,7 @@
       </c>
       <c r="G572" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:43</t>
+          <t>2024-08-18 14:20:31</t>
         </is>
       </c>
     </row>
@@ -21618,7 +21618,7 @@
       </c>
       <c r="G573" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:43</t>
+          <t>2024-08-18 14:20:31</t>
         </is>
       </c>
     </row>
@@ -21655,7 +21655,7 @@
       </c>
       <c r="G574" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:43</t>
+          <t>2024-08-18 14:20:31</t>
         </is>
       </c>
     </row>
@@ -21692,7 +21692,7 @@
       </c>
       <c r="G575" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:43</t>
+          <t>2024-08-18 14:20:31</t>
         </is>
       </c>
     </row>
@@ -21729,7 +21729,7 @@
       </c>
       <c r="G576" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:43</t>
+          <t>2024-08-18 14:20:31</t>
         </is>
       </c>
     </row>
@@ -21766,7 +21766,7 @@
       </c>
       <c r="G577" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:43</t>
+          <t>2024-08-18 14:20:31</t>
         </is>
       </c>
     </row>
@@ -21803,7 +21803,7 @@
       </c>
       <c r="G578" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:43</t>
+          <t>2024-08-18 14:20:31</t>
         </is>
       </c>
     </row>
@@ -21840,7 +21840,7 @@
       </c>
       <c r="G579" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:43</t>
+          <t>2024-08-18 14:20:31</t>
         </is>
       </c>
     </row>
@@ -21877,7 +21877,7 @@
       </c>
       <c r="G580" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:43</t>
+          <t>2024-08-18 14:20:31</t>
         </is>
       </c>
     </row>
@@ -21914,7 +21914,7 @@
       </c>
       <c r="G581" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:43</t>
+          <t>2024-08-18 14:20:31</t>
         </is>
       </c>
     </row>
@@ -21951,7 +21951,7 @@
       </c>
       <c r="G582" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:46</t>
+          <t>2024-08-18 14:20:35</t>
         </is>
       </c>
     </row>
@@ -21988,7 +21988,7 @@
       </c>
       <c r="G583" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:46</t>
+          <t>2024-08-18 14:20:35</t>
         </is>
       </c>
     </row>
@@ -22025,7 +22025,7 @@
       </c>
       <c r="G584" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:46</t>
+          <t>2024-08-18 14:20:35</t>
         </is>
       </c>
     </row>
@@ -22062,7 +22062,7 @@
       </c>
       <c r="G585" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:46</t>
+          <t>2024-08-18 14:20:35</t>
         </is>
       </c>
     </row>
@@ -22099,7 +22099,7 @@
       </c>
       <c r="G586" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:46</t>
+          <t>2024-08-18 14:20:35</t>
         </is>
       </c>
     </row>
@@ -22136,7 +22136,7 @@
       </c>
       <c r="G587" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:46</t>
+          <t>2024-08-18 14:20:35</t>
         </is>
       </c>
     </row>
@@ -22173,7 +22173,7 @@
       </c>
       <c r="G588" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:46</t>
+          <t>2024-08-18 14:20:35</t>
         </is>
       </c>
     </row>
@@ -22210,7 +22210,7 @@
       </c>
       <c r="G589" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:46</t>
+          <t>2024-08-18 14:20:35</t>
         </is>
       </c>
     </row>
@@ -22247,7 +22247,7 @@
       </c>
       <c r="G590" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:46</t>
+          <t>2024-08-18 14:20:35</t>
         </is>
       </c>
     </row>
@@ -22284,7 +22284,7 @@
       </c>
       <c r="G591" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:46</t>
+          <t>2024-08-18 14:20:35</t>
         </is>
       </c>
     </row>
@@ -22321,7 +22321,7 @@
       </c>
       <c r="G592" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:46</t>
+          <t>2024-08-18 14:20:35</t>
         </is>
       </c>
     </row>
@@ -22358,7 +22358,7 @@
       </c>
       <c r="G593" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:46</t>
+          <t>2024-08-18 14:20:35</t>
         </is>
       </c>
     </row>
@@ -22395,7 +22395,7 @@
       </c>
       <c r="G594" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:46</t>
+          <t>2024-08-18 14:20:35</t>
         </is>
       </c>
     </row>
@@ -22432,7 +22432,7 @@
       </c>
       <c r="G595" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:46</t>
+          <t>2024-08-18 14:20:35</t>
         </is>
       </c>
     </row>
@@ -22469,7 +22469,7 @@
       </c>
       <c r="G596" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:46</t>
+          <t>2024-08-18 14:20:35</t>
         </is>
       </c>
     </row>
@@ -22506,7 +22506,7 @@
       </c>
       <c r="G597" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:46</t>
+          <t>2024-08-18 14:20:35</t>
         </is>
       </c>
     </row>
@@ -22543,7 +22543,7 @@
       </c>
       <c r="G598" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:46</t>
+          <t>2024-08-18 14:20:35</t>
         </is>
       </c>
     </row>
@@ -22580,7 +22580,7 @@
       </c>
       <c r="G599" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:46</t>
+          <t>2024-08-18 14:20:35</t>
         </is>
       </c>
     </row>
@@ -22617,7 +22617,7 @@
       </c>
       <c r="G600" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:46</t>
+          <t>2024-08-18 14:20:35</t>
         </is>
       </c>
     </row>
@@ -22654,7 +22654,7 @@
       </c>
       <c r="G601" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:46</t>
+          <t>2024-08-18 14:20:35</t>
         </is>
       </c>
     </row>
@@ -22691,7 +22691,7 @@
       </c>
       <c r="G602" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:50</t>
+          <t>2024-08-18 14:20:39</t>
         </is>
       </c>
     </row>
@@ -22728,7 +22728,7 @@
       </c>
       <c r="G603" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:50</t>
+          <t>2024-08-18 14:20:39</t>
         </is>
       </c>
     </row>
@@ -22765,7 +22765,7 @@
       </c>
       <c r="G604" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:50</t>
+          <t>2024-08-18 14:20:39</t>
         </is>
       </c>
     </row>
@@ -22802,7 +22802,7 @@
       </c>
       <c r="G605" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:50</t>
+          <t>2024-08-18 14:20:39</t>
         </is>
       </c>
     </row>
@@ -22839,7 +22839,7 @@
       </c>
       <c r="G606" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:50</t>
+          <t>2024-08-18 14:20:39</t>
         </is>
       </c>
     </row>
@@ -22876,7 +22876,7 @@
       </c>
       <c r="G607" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:50</t>
+          <t>2024-08-18 14:20:39</t>
         </is>
       </c>
     </row>
@@ -22913,7 +22913,7 @@
       </c>
       <c r="G608" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:50</t>
+          <t>2024-08-18 14:20:39</t>
         </is>
       </c>
     </row>
@@ -22950,7 +22950,7 @@
       </c>
       <c r="G609" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:50</t>
+          <t>2024-08-18 14:20:39</t>
         </is>
       </c>
     </row>
@@ -22987,7 +22987,7 @@
       </c>
       <c r="G610" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:50</t>
+          <t>2024-08-18 14:20:39</t>
         </is>
       </c>
     </row>
@@ -23024,7 +23024,7 @@
       </c>
       <c r="G611" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:50</t>
+          <t>2024-08-18 14:20:39</t>
         </is>
       </c>
     </row>
@@ -23061,7 +23061,7 @@
       </c>
       <c r="G612" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:50</t>
+          <t>2024-08-18 14:20:39</t>
         </is>
       </c>
     </row>
@@ -23098,7 +23098,7 @@
       </c>
       <c r="G613" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:50</t>
+          <t>2024-08-18 14:20:39</t>
         </is>
       </c>
     </row>
@@ -23135,7 +23135,7 @@
       </c>
       <c r="G614" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:50</t>
+          <t>2024-08-18 14:20:39</t>
         </is>
       </c>
     </row>
@@ -23172,7 +23172,7 @@
       </c>
       <c r="G615" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:50</t>
+          <t>2024-08-18 14:20:39</t>
         </is>
       </c>
     </row>
@@ -23209,7 +23209,7 @@
       </c>
       <c r="G616" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:50</t>
+          <t>2024-08-18 14:20:39</t>
         </is>
       </c>
     </row>
@@ -23246,7 +23246,7 @@
       </c>
       <c r="G617" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:50</t>
+          <t>2024-08-18 14:20:39</t>
         </is>
       </c>
     </row>
@@ -23283,7 +23283,7 @@
       </c>
       <c r="G618" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:50</t>
+          <t>2024-08-18 14:20:39</t>
         </is>
       </c>
     </row>
@@ -23320,7 +23320,7 @@
       </c>
       <c r="G619" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:50</t>
+          <t>2024-08-18 14:20:39</t>
         </is>
       </c>
     </row>
@@ -23357,7 +23357,7 @@
       </c>
       <c r="G620" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:50</t>
+          <t>2024-08-18 14:20:39</t>
         </is>
       </c>
     </row>
@@ -23394,7 +23394,7 @@
       </c>
       <c r="G621" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:50</t>
+          <t>2024-08-18 14:20:39</t>
         </is>
       </c>
     </row>
@@ -23431,7 +23431,7 @@
       </c>
       <c r="G622" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:53</t>
+          <t>2024-08-18 14:20:49</t>
         </is>
       </c>
     </row>
@@ -23468,7 +23468,7 @@
       </c>
       <c r="G623" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:53</t>
+          <t>2024-08-18 14:20:49</t>
         </is>
       </c>
     </row>
@@ -23505,7 +23505,7 @@
       </c>
       <c r="G624" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:53</t>
+          <t>2024-08-18 14:20:49</t>
         </is>
       </c>
     </row>
@@ -23542,7 +23542,7 @@
       </c>
       <c r="G625" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:53</t>
+          <t>2024-08-18 14:20:49</t>
         </is>
       </c>
     </row>
@@ -23579,7 +23579,7 @@
       </c>
       <c r="G626" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:53</t>
+          <t>2024-08-18 14:20:49</t>
         </is>
       </c>
     </row>
@@ -23616,7 +23616,7 @@
       </c>
       <c r="G627" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:53</t>
+          <t>2024-08-18 14:20:49</t>
         </is>
       </c>
     </row>
@@ -23653,7 +23653,7 @@
       </c>
       <c r="G628" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:53</t>
+          <t>2024-08-18 14:20:49</t>
         </is>
       </c>
     </row>
@@ -23690,7 +23690,7 @@
       </c>
       <c r="G629" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:53</t>
+          <t>2024-08-18 14:20:49</t>
         </is>
       </c>
     </row>
@@ -23727,7 +23727,7 @@
       </c>
       <c r="G630" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:53</t>
+          <t>2024-08-18 14:20:49</t>
         </is>
       </c>
     </row>
@@ -23764,7 +23764,7 @@
       </c>
       <c r="G631" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:53</t>
+          <t>2024-08-18 14:20:49</t>
         </is>
       </c>
     </row>
@@ -23801,7 +23801,7 @@
       </c>
       <c r="G632" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:53</t>
+          <t>2024-08-18 14:20:49</t>
         </is>
       </c>
     </row>
@@ -23838,7 +23838,7 @@
       </c>
       <c r="G633" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:53</t>
+          <t>2024-08-18 14:20:49</t>
         </is>
       </c>
     </row>
@@ -23875,7 +23875,7 @@
       </c>
       <c r="G634" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:53</t>
+          <t>2024-08-18 14:20:49</t>
         </is>
       </c>
     </row>
@@ -23912,7 +23912,7 @@
       </c>
       <c r="G635" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:53</t>
+          <t>2024-08-18 14:20:49</t>
         </is>
       </c>
     </row>
@@ -23949,7 +23949,7 @@
       </c>
       <c r="G636" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:53</t>
+          <t>2024-08-18 14:20:49</t>
         </is>
       </c>
     </row>
@@ -23986,7 +23986,7 @@
       </c>
       <c r="G637" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:53</t>
+          <t>2024-08-18 14:20:49</t>
         </is>
       </c>
     </row>
@@ -24023,7 +24023,7 @@
       </c>
       <c r="G638" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:53</t>
+          <t>2024-08-18 14:20:49</t>
         </is>
       </c>
     </row>
@@ -24060,7 +24060,7 @@
       </c>
       <c r="G639" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:53</t>
+          <t>2024-08-18 14:20:49</t>
         </is>
       </c>
     </row>
@@ -24097,7 +24097,7 @@
       </c>
       <c r="G640" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:53</t>
+          <t>2024-08-18 14:20:49</t>
         </is>
       </c>
     </row>
@@ -24134,7 +24134,7 @@
       </c>
       <c r="G641" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:53</t>
+          <t>2024-08-18 14:20:49</t>
         </is>
       </c>
     </row>
@@ -24171,7 +24171,7 @@
       </c>
       <c r="G642" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:57</t>
+          <t>2024-08-18 14:20:56</t>
         </is>
       </c>
     </row>
@@ -24208,7 +24208,7 @@
       </c>
       <c r="G643" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:57</t>
+          <t>2024-08-18 14:20:56</t>
         </is>
       </c>
     </row>
@@ -24245,7 +24245,7 @@
       </c>
       <c r="G644" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:57</t>
+          <t>2024-08-18 14:20:56</t>
         </is>
       </c>
     </row>
@@ -24282,7 +24282,7 @@
       </c>
       <c r="G645" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:57</t>
+          <t>2024-08-18 14:20:56</t>
         </is>
       </c>
     </row>
@@ -24319,7 +24319,7 @@
       </c>
       <c r="G646" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:57</t>
+          <t>2024-08-18 14:20:56</t>
         </is>
       </c>
     </row>
@@ -24356,7 +24356,7 @@
       </c>
       <c r="G647" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:57</t>
+          <t>2024-08-18 14:20:56</t>
         </is>
       </c>
     </row>
@@ -24393,7 +24393,7 @@
       </c>
       <c r="G648" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:57</t>
+          <t>2024-08-18 14:20:56</t>
         </is>
       </c>
     </row>
@@ -24430,7 +24430,7 @@
       </c>
       <c r="G649" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:57</t>
+          <t>2024-08-18 14:20:56</t>
         </is>
       </c>
     </row>
@@ -24467,7 +24467,7 @@
       </c>
       <c r="G650" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:57</t>
+          <t>2024-08-18 14:20:56</t>
         </is>
       </c>
     </row>
@@ -24504,7 +24504,7 @@
       </c>
       <c r="G651" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:57</t>
+          <t>2024-08-18 14:20:56</t>
         </is>
       </c>
     </row>
@@ -24541,7 +24541,7 @@
       </c>
       <c r="G652" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:57</t>
+          <t>2024-08-18 14:20:56</t>
         </is>
       </c>
     </row>
@@ -24578,7 +24578,7 @@
       </c>
       <c r="G653" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:57</t>
+          <t>2024-08-18 14:20:56</t>
         </is>
       </c>
     </row>
@@ -24615,7 +24615,7 @@
       </c>
       <c r="G654" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:57</t>
+          <t>2024-08-18 14:20:56</t>
         </is>
       </c>
     </row>
@@ -24652,7 +24652,7 @@
       </c>
       <c r="G655" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:57</t>
+          <t>2024-08-18 14:20:56</t>
         </is>
       </c>
     </row>
@@ -24689,7 +24689,7 @@
       </c>
       <c r="G656" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:57</t>
+          <t>2024-08-18 14:20:56</t>
         </is>
       </c>
     </row>
@@ -24726,7 +24726,7 @@
       </c>
       <c r="G657" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:57</t>
+          <t>2024-08-18 14:20:56</t>
         </is>
       </c>
     </row>
@@ -24763,7 +24763,7 @@
       </c>
       <c r="G658" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:57</t>
+          <t>2024-08-18 14:20:57</t>
         </is>
       </c>
     </row>
@@ -24800,7 +24800,7 @@
       </c>
       <c r="G659" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:57</t>
+          <t>2024-08-18 14:20:57</t>
         </is>
       </c>
     </row>
@@ -24837,7 +24837,7 @@
       </c>
       <c r="G660" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:57</t>
+          <t>2024-08-18 14:20:57</t>
         </is>
       </c>
     </row>
@@ -24874,7 +24874,7 @@
       </c>
       <c r="G661" t="inlineStr">
         <is>
-          <t>2024-08-18 13:19:57</t>
+          <t>2024-08-18 14:20:57</t>
         </is>
       </c>
     </row>
@@ -24911,7 +24911,7 @@
       </c>
       <c r="G662" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:00</t>
+          <t>2024-08-18 14:21:03</t>
         </is>
       </c>
     </row>
@@ -24948,7 +24948,7 @@
       </c>
       <c r="G663" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:00</t>
+          <t>2024-08-18 14:21:03</t>
         </is>
       </c>
     </row>
@@ -24985,7 +24985,7 @@
       </c>
       <c r="G664" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:00</t>
+          <t>2024-08-18 14:21:03</t>
         </is>
       </c>
     </row>
@@ -25022,7 +25022,7 @@
       </c>
       <c r="G665" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:00</t>
+          <t>2024-08-18 14:21:03</t>
         </is>
       </c>
     </row>
@@ -25059,7 +25059,7 @@
       </c>
       <c r="G666" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:00</t>
+          <t>2024-08-18 14:21:03</t>
         </is>
       </c>
     </row>
@@ -25096,7 +25096,7 @@
       </c>
       <c r="G667" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:00</t>
+          <t>2024-08-18 14:21:03</t>
         </is>
       </c>
     </row>
@@ -25133,7 +25133,7 @@
       </c>
       <c r="G668" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:00</t>
+          <t>2024-08-18 14:21:04</t>
         </is>
       </c>
     </row>
@@ -25170,7 +25170,7 @@
       </c>
       <c r="G669" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:00</t>
+          <t>2024-08-18 14:21:04</t>
         </is>
       </c>
     </row>
@@ -25207,7 +25207,7 @@
       </c>
       <c r="G670" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:00</t>
+          <t>2024-08-18 14:21:04</t>
         </is>
       </c>
     </row>
@@ -25244,7 +25244,7 @@
       </c>
       <c r="G671" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:00</t>
+          <t>2024-08-18 14:21:04</t>
         </is>
       </c>
     </row>
@@ -25281,7 +25281,7 @@
       </c>
       <c r="G672" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:00</t>
+          <t>2024-08-18 14:21:04</t>
         </is>
       </c>
     </row>
@@ -25318,7 +25318,7 @@
       </c>
       <c r="G673" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:00</t>
+          <t>2024-08-18 14:21:04</t>
         </is>
       </c>
     </row>
@@ -25355,7 +25355,7 @@
       </c>
       <c r="G674" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:00</t>
+          <t>2024-08-18 14:21:04</t>
         </is>
       </c>
     </row>
@@ -25392,7 +25392,7 @@
       </c>
       <c r="G675" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:00</t>
+          <t>2024-08-18 14:21:04</t>
         </is>
       </c>
     </row>
@@ -25429,7 +25429,7 @@
       </c>
       <c r="G676" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:00</t>
+          <t>2024-08-18 14:21:04</t>
         </is>
       </c>
     </row>
@@ -25466,7 +25466,7 @@
       </c>
       <c r="G677" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:00</t>
+          <t>2024-08-18 14:21:04</t>
         </is>
       </c>
     </row>
@@ -25503,7 +25503,7 @@
       </c>
       <c r="G678" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:00</t>
+          <t>2024-08-18 14:21:04</t>
         </is>
       </c>
     </row>
@@ -25540,7 +25540,7 @@
       </c>
       <c r="G679" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:00</t>
+          <t>2024-08-18 14:21:04</t>
         </is>
       </c>
     </row>
@@ -25577,7 +25577,7 @@
       </c>
       <c r="G680" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:00</t>
+          <t>2024-08-18 14:21:04</t>
         </is>
       </c>
     </row>
@@ -25614,7 +25614,7 @@
       </c>
       <c r="G681" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:00</t>
+          <t>2024-08-18 14:21:04</t>
         </is>
       </c>
     </row>
@@ -25651,7 +25651,7 @@
       </c>
       <c r="G682" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:04</t>
+          <t>2024-08-18 14:21:12</t>
         </is>
       </c>
     </row>
@@ -25688,7 +25688,7 @@
       </c>
       <c r="G683" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:04</t>
+          <t>2024-08-18 14:21:12</t>
         </is>
       </c>
     </row>
@@ -25725,7 +25725,7 @@
       </c>
       <c r="G684" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:04</t>
+          <t>2024-08-18 14:21:12</t>
         </is>
       </c>
     </row>
@@ -25762,7 +25762,7 @@
       </c>
       <c r="G685" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:04</t>
+          <t>2024-08-18 14:21:12</t>
         </is>
       </c>
     </row>
@@ -25799,7 +25799,7 @@
       </c>
       <c r="G686" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:04</t>
+          <t>2024-08-18 14:21:12</t>
         </is>
       </c>
     </row>
@@ -25836,7 +25836,7 @@
       </c>
       <c r="G687" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:04</t>
+          <t>2024-08-18 14:21:12</t>
         </is>
       </c>
     </row>
@@ -25873,7 +25873,7 @@
       </c>
       <c r="G688" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:04</t>
+          <t>2024-08-18 14:21:12</t>
         </is>
       </c>
     </row>
@@ -25910,7 +25910,7 @@
       </c>
       <c r="G689" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:04</t>
+          <t>2024-08-18 14:21:12</t>
         </is>
       </c>
     </row>
@@ -25947,7 +25947,7 @@
       </c>
       <c r="G690" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:04</t>
+          <t>2024-08-18 14:21:12</t>
         </is>
       </c>
     </row>
@@ -25984,7 +25984,7 @@
       </c>
       <c r="G691" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:04</t>
+          <t>2024-08-18 14:21:12</t>
         </is>
       </c>
     </row>
@@ -26021,7 +26021,7 @@
       </c>
       <c r="G692" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:04</t>
+          <t>2024-08-18 14:21:12</t>
         </is>
       </c>
     </row>
@@ -26058,7 +26058,7 @@
       </c>
       <c r="G693" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:04</t>
+          <t>2024-08-18 14:21:12</t>
         </is>
       </c>
     </row>
@@ -26095,7 +26095,7 @@
       </c>
       <c r="G694" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:04</t>
+          <t>2024-08-18 14:21:12</t>
         </is>
       </c>
     </row>
@@ -26132,7 +26132,7 @@
       </c>
       <c r="G695" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:04</t>
+          <t>2024-08-18 14:21:12</t>
         </is>
       </c>
     </row>
@@ -26169,7 +26169,7 @@
       </c>
       <c r="G696" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:04</t>
+          <t>2024-08-18 14:21:12</t>
         </is>
       </c>
     </row>
@@ -26206,7 +26206,7 @@
       </c>
       <c r="G697" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:04</t>
+          <t>2024-08-18 14:21:12</t>
         </is>
       </c>
     </row>
@@ -26243,7 +26243,7 @@
       </c>
       <c r="G698" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:04</t>
+          <t>2024-08-18 14:21:12</t>
         </is>
       </c>
     </row>
@@ -26280,7 +26280,7 @@
       </c>
       <c r="G699" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:04</t>
+          <t>2024-08-18 14:21:12</t>
         </is>
       </c>
     </row>
@@ -26317,7 +26317,7 @@
       </c>
       <c r="G700" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:04</t>
+          <t>2024-08-18 14:21:12</t>
         </is>
       </c>
     </row>
@@ -26354,7 +26354,7 @@
       </c>
       <c r="G701" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:04</t>
+          <t>2024-08-18 14:21:12</t>
         </is>
       </c>
     </row>
@@ -26391,7 +26391,7 @@
       </c>
       <c r="G702" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:08</t>
+          <t>2024-08-18 14:21:20</t>
         </is>
       </c>
     </row>
@@ -26428,7 +26428,7 @@
       </c>
       <c r="G703" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:08</t>
+          <t>2024-08-18 14:21:20</t>
         </is>
       </c>
     </row>
@@ -26465,7 +26465,7 @@
       </c>
       <c r="G704" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:08</t>
+          <t>2024-08-18 14:21:20</t>
         </is>
       </c>
     </row>
@@ -26502,7 +26502,7 @@
       </c>
       <c r="G705" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:08</t>
+          <t>2024-08-18 14:21:20</t>
         </is>
       </c>
     </row>
@@ -26539,7 +26539,7 @@
       </c>
       <c r="G706" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:08</t>
+          <t>2024-08-18 14:21:20</t>
         </is>
       </c>
     </row>
@@ -26576,7 +26576,7 @@
       </c>
       <c r="G707" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:08</t>
+          <t>2024-08-18 14:21:20</t>
         </is>
       </c>
     </row>
@@ -26613,7 +26613,7 @@
       </c>
       <c r="G708" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:08</t>
+          <t>2024-08-18 14:21:20</t>
         </is>
       </c>
     </row>
@@ -26650,7 +26650,7 @@
       </c>
       <c r="G709" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:08</t>
+          <t>2024-08-18 14:21:20</t>
         </is>
       </c>
     </row>
@@ -26687,7 +26687,7 @@
       </c>
       <c r="G710" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:08</t>
+          <t>2024-08-18 14:21:20</t>
         </is>
       </c>
     </row>
@@ -26724,7 +26724,7 @@
       </c>
       <c r="G711" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:08</t>
+          <t>2024-08-18 14:21:20</t>
         </is>
       </c>
     </row>
@@ -26761,7 +26761,7 @@
       </c>
       <c r="G712" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:08</t>
+          <t>2024-08-18 14:21:20</t>
         </is>
       </c>
     </row>
@@ -26798,7 +26798,7 @@
       </c>
       <c r="G713" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:08</t>
+          <t>2024-08-18 14:21:20</t>
         </is>
       </c>
     </row>
@@ -26835,7 +26835,7 @@
       </c>
       <c r="G714" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:08</t>
+          <t>2024-08-18 14:21:20</t>
         </is>
       </c>
     </row>
@@ -26872,7 +26872,7 @@
       </c>
       <c r="G715" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:08</t>
+          <t>2024-08-18 14:21:20</t>
         </is>
       </c>
     </row>
@@ -26909,7 +26909,7 @@
       </c>
       <c r="G716" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:08</t>
+          <t>2024-08-18 14:21:20</t>
         </is>
       </c>
     </row>
@@ -26946,7 +26946,7 @@
       </c>
       <c r="G717" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:08</t>
+          <t>2024-08-18 14:21:20</t>
         </is>
       </c>
     </row>
@@ -26983,7 +26983,7 @@
       </c>
       <c r="G718" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:08</t>
+          <t>2024-08-18 14:21:20</t>
         </is>
       </c>
     </row>
@@ -27020,7 +27020,7 @@
       </c>
       <c r="G719" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:08</t>
+          <t>2024-08-18 14:21:20</t>
         </is>
       </c>
     </row>
@@ -27057,7 +27057,7 @@
       </c>
       <c r="G720" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:08</t>
+          <t>2024-08-18 14:21:20</t>
         </is>
       </c>
     </row>
@@ -27094,7 +27094,7 @@
       </c>
       <c r="G721" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:08</t>
+          <t>2024-08-18 14:21:20</t>
         </is>
       </c>
     </row>
@@ -27131,7 +27131,7 @@
       </c>
       <c r="G722" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:12</t>
+          <t>2024-08-18 14:21:28</t>
         </is>
       </c>
     </row>
@@ -27168,7 +27168,7 @@
       </c>
       <c r="G723" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:12</t>
+          <t>2024-08-18 14:21:28</t>
         </is>
       </c>
     </row>
@@ -27205,7 +27205,7 @@
       </c>
       <c r="G724" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:12</t>
+          <t>2024-08-18 14:21:28</t>
         </is>
       </c>
     </row>
@@ -27242,7 +27242,7 @@
       </c>
       <c r="G725" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:12</t>
+          <t>2024-08-18 14:21:28</t>
         </is>
       </c>
     </row>
@@ -27279,7 +27279,7 @@
       </c>
       <c r="G726" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:12</t>
+          <t>2024-08-18 14:21:28</t>
         </is>
       </c>
     </row>
@@ -27316,7 +27316,7 @@
       </c>
       <c r="G727" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:12</t>
+          <t>2024-08-18 14:21:28</t>
         </is>
       </c>
     </row>
@@ -27353,7 +27353,7 @@
       </c>
       <c r="G728" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:12</t>
+          <t>2024-08-18 14:21:28</t>
         </is>
       </c>
     </row>
@@ -27390,7 +27390,7 @@
       </c>
       <c r="G729" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:12</t>
+          <t>2024-08-18 14:21:28</t>
         </is>
       </c>
     </row>
@@ -27427,7 +27427,7 @@
       </c>
       <c r="G730" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:12</t>
+          <t>2024-08-18 14:21:28</t>
         </is>
       </c>
     </row>
@@ -27464,7 +27464,7 @@
       </c>
       <c r="G731" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:12</t>
+          <t>2024-08-18 14:21:28</t>
         </is>
       </c>
     </row>
@@ -27501,7 +27501,7 @@
       </c>
       <c r="G732" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:12</t>
+          <t>2024-08-18 14:21:28</t>
         </is>
       </c>
     </row>
@@ -27538,7 +27538,7 @@
       </c>
       <c r="G733" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:12</t>
+          <t>2024-08-18 14:21:28</t>
         </is>
       </c>
     </row>
@@ -27575,7 +27575,7 @@
       </c>
       <c r="G734" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:12</t>
+          <t>2024-08-18 14:21:28</t>
         </is>
       </c>
     </row>
@@ -27612,7 +27612,7 @@
       </c>
       <c r="G735" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:12</t>
+          <t>2024-08-18 14:21:28</t>
         </is>
       </c>
     </row>
@@ -27649,7 +27649,7 @@
       </c>
       <c r="G736" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:12</t>
+          <t>2024-08-18 14:21:28</t>
         </is>
       </c>
     </row>
@@ -27686,7 +27686,7 @@
       </c>
       <c r="G737" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:12</t>
+          <t>2024-08-18 14:21:28</t>
         </is>
       </c>
     </row>
@@ -27723,7 +27723,7 @@
       </c>
       <c r="G738" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:12</t>
+          <t>2024-08-18 14:21:28</t>
         </is>
       </c>
     </row>
@@ -27760,7 +27760,7 @@
       </c>
       <c r="G739" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:12</t>
+          <t>2024-08-18 14:21:28</t>
         </is>
       </c>
     </row>
@@ -27797,7 +27797,7 @@
       </c>
       <c r="G740" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:12</t>
+          <t>2024-08-18 14:21:28</t>
         </is>
       </c>
     </row>
@@ -27834,7 +27834,7 @@
       </c>
       <c r="G741" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:12</t>
+          <t>2024-08-18 14:21:28</t>
         </is>
       </c>
     </row>
@@ -27871,7 +27871,7 @@
       </c>
       <c r="G742" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:16</t>
+          <t>2024-08-18 14:21:38</t>
         </is>
       </c>
     </row>
@@ -27908,7 +27908,7 @@
       </c>
       <c r="G743" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:16</t>
+          <t>2024-08-18 14:21:38</t>
         </is>
       </c>
     </row>
@@ -27945,7 +27945,7 @@
       </c>
       <c r="G744" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:16</t>
+          <t>2024-08-18 14:21:38</t>
         </is>
       </c>
     </row>
@@ -27982,7 +27982,7 @@
       </c>
       <c r="G745" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:16</t>
+          <t>2024-08-18 14:21:38</t>
         </is>
       </c>
     </row>
@@ -28019,7 +28019,7 @@
       </c>
       <c r="G746" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:16</t>
+          <t>2024-08-18 14:21:38</t>
         </is>
       </c>
     </row>
@@ -28056,7 +28056,7 @@
       </c>
       <c r="G747" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:16</t>
+          <t>2024-08-18 14:21:38</t>
         </is>
       </c>
     </row>
@@ -28093,7 +28093,7 @@
       </c>
       <c r="G748" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:16</t>
+          <t>2024-08-18 14:21:38</t>
         </is>
       </c>
     </row>
@@ -28130,7 +28130,7 @@
       </c>
       <c r="G749" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:16</t>
+          <t>2024-08-18 14:21:38</t>
         </is>
       </c>
     </row>
@@ -28167,7 +28167,7 @@
       </c>
       <c r="G750" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:16</t>
+          <t>2024-08-18 14:21:38</t>
         </is>
       </c>
     </row>
@@ -28204,7 +28204,7 @@
       </c>
       <c r="G751" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:16</t>
+          <t>2024-08-18 14:21:38</t>
         </is>
       </c>
     </row>
@@ -28241,7 +28241,7 @@
       </c>
       <c r="G752" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:16</t>
+          <t>2024-08-18 14:21:38</t>
         </is>
       </c>
     </row>
@@ -28278,7 +28278,7 @@
       </c>
       <c r="G753" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:16</t>
+          <t>2024-08-18 14:21:38</t>
         </is>
       </c>
     </row>
@@ -28315,7 +28315,7 @@
       </c>
       <c r="G754" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:16</t>
+          <t>2024-08-18 14:21:38</t>
         </is>
       </c>
     </row>
@@ -28352,7 +28352,7 @@
       </c>
       <c r="G755" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:16</t>
+          <t>2024-08-18 14:21:38</t>
         </is>
       </c>
     </row>
@@ -28389,7 +28389,7 @@
       </c>
       <c r="G756" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:16</t>
+          <t>2024-08-18 14:21:38</t>
         </is>
       </c>
     </row>
@@ -28426,7 +28426,7 @@
       </c>
       <c r="G757" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:16</t>
+          <t>2024-08-18 14:21:38</t>
         </is>
       </c>
     </row>
@@ -28463,7 +28463,7 @@
       </c>
       <c r="G758" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:16</t>
+          <t>2024-08-18 14:21:38</t>
         </is>
       </c>
     </row>
@@ -28500,7 +28500,7 @@
       </c>
       <c r="G759" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:16</t>
+          <t>2024-08-18 14:21:38</t>
         </is>
       </c>
     </row>
@@ -28537,7 +28537,7 @@
       </c>
       <c r="G760" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:16</t>
+          <t>2024-08-18 14:21:38</t>
         </is>
       </c>
     </row>
@@ -28574,7 +28574,7 @@
       </c>
       <c r="G761" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:16</t>
+          <t>2024-08-18 14:21:38</t>
         </is>
       </c>
     </row>
@@ -28611,7 +28611,7 @@
       </c>
       <c r="G762" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:19</t>
+          <t>2024-08-18 14:22:05</t>
         </is>
       </c>
     </row>
@@ -28648,7 +28648,7 @@
       </c>
       <c r="G763" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:19</t>
+          <t>2024-08-18 14:22:05</t>
         </is>
       </c>
     </row>
@@ -28685,7 +28685,7 @@
       </c>
       <c r="G764" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:19</t>
+          <t>2024-08-18 14:22:05</t>
         </is>
       </c>
     </row>
@@ -28722,7 +28722,7 @@
       </c>
       <c r="G765" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:19</t>
+          <t>2024-08-18 14:22:05</t>
         </is>
       </c>
     </row>
@@ -28759,7 +28759,7 @@
       </c>
       <c r="G766" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:19</t>
+          <t>2024-08-18 14:22:05</t>
         </is>
       </c>
     </row>
@@ -28796,7 +28796,7 @@
       </c>
       <c r="G767" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:19</t>
+          <t>2024-08-18 14:22:05</t>
         </is>
       </c>
     </row>
@@ -28833,7 +28833,7 @@
       </c>
       <c r="G768" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:19</t>
+          <t>2024-08-18 14:22:05</t>
         </is>
       </c>
     </row>
@@ -28870,7 +28870,7 @@
       </c>
       <c r="G769" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:19</t>
+          <t>2024-08-18 14:22:05</t>
         </is>
       </c>
     </row>
@@ -28907,7 +28907,7 @@
       </c>
       <c r="G770" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:19</t>
+          <t>2024-08-18 14:22:05</t>
         </is>
       </c>
     </row>
@@ -28944,7 +28944,7 @@
       </c>
       <c r="G771" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:19</t>
+          <t>2024-08-18 14:22:05</t>
         </is>
       </c>
     </row>
@@ -28981,7 +28981,7 @@
       </c>
       <c r="G772" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:19</t>
+          <t>2024-08-18 14:22:05</t>
         </is>
       </c>
     </row>
@@ -29018,7 +29018,7 @@
       </c>
       <c r="G773" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:19</t>
+          <t>2024-08-18 14:22:05</t>
         </is>
       </c>
     </row>
@@ -29055,7 +29055,7 @@
       </c>
       <c r="G774" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:19</t>
+          <t>2024-08-18 14:22:05</t>
         </is>
       </c>
     </row>
@@ -29092,7 +29092,7 @@
       </c>
       <c r="G775" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:19</t>
+          <t>2024-08-18 14:22:05</t>
         </is>
       </c>
     </row>
@@ -29129,7 +29129,7 @@
       </c>
       <c r="G776" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:19</t>
+          <t>2024-08-18 14:22:05</t>
         </is>
       </c>
     </row>
@@ -29166,7 +29166,7 @@
       </c>
       <c r="G777" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:19</t>
+          <t>2024-08-18 14:22:05</t>
         </is>
       </c>
     </row>
@@ -29203,7 +29203,7 @@
       </c>
       <c r="G778" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:19</t>
+          <t>2024-08-18 14:22:05</t>
         </is>
       </c>
     </row>
@@ -29240,7 +29240,7 @@
       </c>
       <c r="G779" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:19</t>
+          <t>2024-08-18 14:22:05</t>
         </is>
       </c>
     </row>
@@ -29277,7 +29277,7 @@
       </c>
       <c r="G780" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:19</t>
+          <t>2024-08-18 14:22:05</t>
         </is>
       </c>
     </row>
@@ -29314,7 +29314,7 @@
       </c>
       <c r="G781" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:19</t>
+          <t>2024-08-18 14:22:05</t>
         </is>
       </c>
     </row>
@@ -29351,7 +29351,7 @@
       </c>
       <c r="G782" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:23</t>
+          <t>2024-08-18 14:22:09</t>
         </is>
       </c>
     </row>
@@ -29388,7 +29388,7 @@
       </c>
       <c r="G783" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:23</t>
+          <t>2024-08-18 14:22:09</t>
         </is>
       </c>
     </row>
@@ -29425,7 +29425,7 @@
       </c>
       <c r="G784" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:23</t>
+          <t>2024-08-18 14:22:09</t>
         </is>
       </c>
     </row>
@@ -29462,7 +29462,7 @@
       </c>
       <c r="G785" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:23</t>
+          <t>2024-08-18 14:22:09</t>
         </is>
       </c>
     </row>
@@ -29499,7 +29499,7 @@
       </c>
       <c r="G786" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:23</t>
+          <t>2024-08-18 14:22:09</t>
         </is>
       </c>
     </row>
@@ -29536,7 +29536,7 @@
       </c>
       <c r="G787" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:23</t>
+          <t>2024-08-18 14:22:09</t>
         </is>
       </c>
     </row>
@@ -29573,7 +29573,7 @@
       </c>
       <c r="G788" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:23</t>
+          <t>2024-08-18 14:22:09</t>
         </is>
       </c>
     </row>
@@ -29610,7 +29610,7 @@
       </c>
       <c r="G789" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:23</t>
+          <t>2024-08-18 14:22:09</t>
         </is>
       </c>
     </row>
@@ -29647,7 +29647,7 @@
       </c>
       <c r="G790" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:23</t>
+          <t>2024-08-18 14:22:09</t>
         </is>
       </c>
     </row>
@@ -29684,7 +29684,7 @@
       </c>
       <c r="G791" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:23</t>
+          <t>2024-08-18 14:22:09</t>
         </is>
       </c>
     </row>
@@ -29721,7 +29721,7 @@
       </c>
       <c r="G792" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:23</t>
+          <t>2024-08-18 14:22:09</t>
         </is>
       </c>
     </row>
@@ -29758,7 +29758,7 @@
       </c>
       <c r="G793" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:23</t>
+          <t>2024-08-18 14:22:09</t>
         </is>
       </c>
     </row>
@@ -29795,7 +29795,7 @@
       </c>
       <c r="G794" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:23</t>
+          <t>2024-08-18 14:22:09</t>
         </is>
       </c>
     </row>
@@ -29832,7 +29832,7 @@
       </c>
       <c r="G795" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:23</t>
+          <t>2024-08-18 14:22:09</t>
         </is>
       </c>
     </row>
@@ -29869,7 +29869,7 @@
       </c>
       <c r="G796" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:23</t>
+          <t>2024-08-18 14:22:09</t>
         </is>
       </c>
     </row>
@@ -29906,7 +29906,7 @@
       </c>
       <c r="G797" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:23</t>
+          <t>2024-08-18 14:22:09</t>
         </is>
       </c>
     </row>
@@ -29943,7 +29943,7 @@
       </c>
       <c r="G798" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:23</t>
+          <t>2024-08-18 14:22:09</t>
         </is>
       </c>
     </row>
@@ -29980,7 +29980,7 @@
       </c>
       <c r="G799" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:23</t>
+          <t>2024-08-18 14:22:09</t>
         </is>
       </c>
     </row>
@@ -30017,7 +30017,7 @@
       </c>
       <c r="G800" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:23</t>
+          <t>2024-08-18 14:22:09</t>
         </is>
       </c>
     </row>
@@ -30054,7 +30054,7 @@
       </c>
       <c r="G801" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:23</t>
+          <t>2024-08-18 14:22:09</t>
         </is>
       </c>
     </row>
@@ -30091,7 +30091,7 @@
       </c>
       <c r="G802" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:27</t>
+          <t>2024-08-18 14:22:12</t>
         </is>
       </c>
     </row>
@@ -30128,7 +30128,7 @@
       </c>
       <c r="G803" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:27</t>
+          <t>2024-08-18 14:22:12</t>
         </is>
       </c>
     </row>
@@ -30165,7 +30165,7 @@
       </c>
       <c r="G804" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:27</t>
+          <t>2024-08-18 14:22:12</t>
         </is>
       </c>
     </row>
@@ -30202,7 +30202,7 @@
       </c>
       <c r="G805" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:27</t>
+          <t>2024-08-18 14:22:12</t>
         </is>
       </c>
     </row>
@@ -30239,7 +30239,7 @@
       </c>
       <c r="G806" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:27</t>
+          <t>2024-08-18 14:22:12</t>
         </is>
       </c>
     </row>
@@ -30276,7 +30276,7 @@
       </c>
       <c r="G807" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:27</t>
+          <t>2024-08-18 14:22:12</t>
         </is>
       </c>
     </row>
@@ -30313,7 +30313,7 @@
       </c>
       <c r="G808" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:27</t>
+          <t>2024-08-18 14:22:12</t>
         </is>
       </c>
     </row>
@@ -30350,7 +30350,7 @@
       </c>
       <c r="G809" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:27</t>
+          <t>2024-08-18 14:22:12</t>
         </is>
       </c>
     </row>
@@ -30387,7 +30387,7 @@
       </c>
       <c r="G810" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:27</t>
+          <t>2024-08-18 14:22:12</t>
         </is>
       </c>
     </row>
@@ -30424,7 +30424,7 @@
       </c>
       <c r="G811" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:27</t>
+          <t>2024-08-18 14:22:12</t>
         </is>
       </c>
     </row>
@@ -30461,7 +30461,7 @@
       </c>
       <c r="G812" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:27</t>
+          <t>2024-08-18 14:22:12</t>
         </is>
       </c>
     </row>
@@ -30498,7 +30498,7 @@
       </c>
       <c r="G813" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:27</t>
+          <t>2024-08-18 14:22:12</t>
         </is>
       </c>
     </row>
@@ -30535,7 +30535,7 @@
       </c>
       <c r="G814" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:27</t>
+          <t>2024-08-18 14:22:12</t>
         </is>
       </c>
     </row>
@@ -30572,7 +30572,7 @@
       </c>
       <c r="G815" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:27</t>
+          <t>2024-08-18 14:22:12</t>
         </is>
       </c>
     </row>
@@ -30609,7 +30609,7 @@
       </c>
       <c r="G816" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:27</t>
+          <t>2024-08-18 14:22:12</t>
         </is>
       </c>
     </row>
@@ -30646,7 +30646,7 @@
       </c>
       <c r="G817" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:27</t>
+          <t>2024-08-18 14:22:12</t>
         </is>
       </c>
     </row>
@@ -30683,7 +30683,7 @@
       </c>
       <c r="G818" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:27</t>
+          <t>2024-08-18 14:22:12</t>
         </is>
       </c>
     </row>
@@ -30720,7 +30720,7 @@
       </c>
       <c r="G819" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:27</t>
+          <t>2024-08-18 14:22:12</t>
         </is>
       </c>
     </row>
@@ -30757,7 +30757,7 @@
       </c>
       <c r="G820" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:27</t>
+          <t>2024-08-18 14:22:12</t>
         </is>
       </c>
     </row>
@@ -30794,7 +30794,7 @@
       </c>
       <c r="G821" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:27</t>
+          <t>2024-08-18 14:22:12</t>
         </is>
       </c>
     </row>
@@ -30831,7 +30831,7 @@
       </c>
       <c r="G822" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:30</t>
+          <t>2024-08-18 14:22:16</t>
         </is>
       </c>
     </row>
@@ -30868,7 +30868,7 @@
       </c>
       <c r="G823" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:30</t>
+          <t>2024-08-18 14:22:16</t>
         </is>
       </c>
     </row>
@@ -30905,7 +30905,7 @@
       </c>
       <c r="G824" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:30</t>
+          <t>2024-08-18 14:22:16</t>
         </is>
       </c>
     </row>
@@ -30942,7 +30942,7 @@
       </c>
       <c r="G825" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:30</t>
+          <t>2024-08-18 14:22:16</t>
         </is>
       </c>
     </row>
@@ -30979,7 +30979,7 @@
       </c>
       <c r="G826" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:30</t>
+          <t>2024-08-18 14:22:16</t>
         </is>
       </c>
     </row>
@@ -31016,7 +31016,7 @@
       </c>
       <c r="G827" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:30</t>
+          <t>2024-08-18 14:22:16</t>
         </is>
       </c>
     </row>
@@ -31053,7 +31053,7 @@
       </c>
       <c r="G828" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:30</t>
+          <t>2024-08-18 14:22:16</t>
         </is>
       </c>
     </row>
@@ -31090,7 +31090,7 @@
       </c>
       <c r="G829" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:30</t>
+          <t>2024-08-18 14:22:16</t>
         </is>
       </c>
     </row>
@@ -31127,7 +31127,7 @@
       </c>
       <c r="G830" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:30</t>
+          <t>2024-08-18 14:22:16</t>
         </is>
       </c>
     </row>
@@ -31164,7 +31164,7 @@
       </c>
       <c r="G831" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:30</t>
+          <t>2024-08-18 14:22:16</t>
         </is>
       </c>
     </row>
@@ -31201,7 +31201,7 @@
       </c>
       <c r="G832" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:30</t>
+          <t>2024-08-18 14:22:16</t>
         </is>
       </c>
     </row>
@@ -31238,7 +31238,7 @@
       </c>
       <c r="G833" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:30</t>
+          <t>2024-08-18 14:22:16</t>
         </is>
       </c>
     </row>
@@ -31275,7 +31275,7 @@
       </c>
       <c r="G834" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:30</t>
+          <t>2024-08-18 14:22:16</t>
         </is>
       </c>
     </row>
@@ -31312,7 +31312,7 @@
       </c>
       <c r="G835" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:30</t>
+          <t>2024-08-18 14:22:16</t>
         </is>
       </c>
     </row>
@@ -31349,7 +31349,7 @@
       </c>
       <c r="G836" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:30</t>
+          <t>2024-08-18 14:22:16</t>
         </is>
       </c>
     </row>
@@ -31386,7 +31386,7 @@
       </c>
       <c r="G837" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:30</t>
+          <t>2024-08-18 14:22:16</t>
         </is>
       </c>
     </row>
@@ -31423,7 +31423,7 @@
       </c>
       <c r="G838" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:30</t>
+          <t>2024-08-18 14:22:16</t>
         </is>
       </c>
     </row>
@@ -31460,7 +31460,7 @@
       </c>
       <c r="G839" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:30</t>
+          <t>2024-08-18 14:22:16</t>
         </is>
       </c>
     </row>
@@ -31497,7 +31497,7 @@
       </c>
       <c r="G840" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:30</t>
+          <t>2024-08-18 14:22:16</t>
         </is>
       </c>
     </row>
@@ -31534,7 +31534,7 @@
       </c>
       <c r="G841" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:30</t>
+          <t>2024-08-18 14:22:16</t>
         </is>
       </c>
     </row>
@@ -31571,7 +31571,7 @@
       </c>
       <c r="G842" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:34</t>
+          <t>2024-08-18 14:22:20</t>
         </is>
       </c>
     </row>
@@ -31608,7 +31608,7 @@
       </c>
       <c r="G843" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:34</t>
+          <t>2024-08-18 14:22:20</t>
         </is>
       </c>
     </row>
@@ -31645,7 +31645,7 @@
       </c>
       <c r="G844" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:34</t>
+          <t>2024-08-18 14:22:20</t>
         </is>
       </c>
     </row>
@@ -31682,7 +31682,7 @@
       </c>
       <c r="G845" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:34</t>
+          <t>2024-08-18 14:22:20</t>
         </is>
       </c>
     </row>
@@ -31719,7 +31719,7 @@
       </c>
       <c r="G846" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:34</t>
+          <t>2024-08-18 14:22:20</t>
         </is>
       </c>
     </row>
@@ -31756,7 +31756,7 @@
       </c>
       <c r="G847" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:34</t>
+          <t>2024-08-18 14:22:20</t>
         </is>
       </c>
     </row>
@@ -31793,7 +31793,7 @@
       </c>
       <c r="G848" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:34</t>
+          <t>2024-08-18 14:22:20</t>
         </is>
       </c>
     </row>
@@ -31830,7 +31830,7 @@
       </c>
       <c r="G849" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:34</t>
+          <t>2024-08-18 14:22:20</t>
         </is>
       </c>
     </row>
@@ -31867,7 +31867,7 @@
       </c>
       <c r="G850" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:34</t>
+          <t>2024-08-18 14:22:20</t>
         </is>
       </c>
     </row>
@@ -31904,7 +31904,7 @@
       </c>
       <c r="G851" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:34</t>
+          <t>2024-08-18 14:22:20</t>
         </is>
       </c>
     </row>
@@ -31941,7 +31941,7 @@
       </c>
       <c r="G852" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:34</t>
+          <t>2024-08-18 14:22:20</t>
         </is>
       </c>
     </row>
@@ -31978,7 +31978,7 @@
       </c>
       <c r="G853" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:34</t>
+          <t>2024-08-18 14:22:20</t>
         </is>
       </c>
     </row>
@@ -32015,7 +32015,7 @@
       </c>
       <c r="G854" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:34</t>
+          <t>2024-08-18 14:22:20</t>
         </is>
       </c>
     </row>
@@ -32052,7 +32052,7 @@
       </c>
       <c r="G855" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:34</t>
+          <t>2024-08-18 14:22:20</t>
         </is>
       </c>
     </row>
@@ -32089,7 +32089,7 @@
       </c>
       <c r="G856" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:34</t>
+          <t>2024-08-18 14:22:20</t>
         </is>
       </c>
     </row>
@@ -32126,7 +32126,7 @@
       </c>
       <c r="G857" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:34</t>
+          <t>2024-08-18 14:22:20</t>
         </is>
       </c>
     </row>
@@ -32163,7 +32163,7 @@
       </c>
       <c r="G858" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:34</t>
+          <t>2024-08-18 14:22:20</t>
         </is>
       </c>
     </row>
@@ -32200,7 +32200,7 @@
       </c>
       <c r="G859" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:34</t>
+          <t>2024-08-18 14:22:20</t>
         </is>
       </c>
     </row>
@@ -32237,7 +32237,7 @@
       </c>
       <c r="G860" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:34</t>
+          <t>2024-08-18 14:22:20</t>
         </is>
       </c>
     </row>
@@ -32274,7 +32274,7 @@
       </c>
       <c r="G861" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:34</t>
+          <t>2024-08-18 14:22:20</t>
         </is>
       </c>
     </row>
@@ -32311,7 +32311,7 @@
       </c>
       <c r="G862" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:38</t>
+          <t>2024-08-18 14:22:23</t>
         </is>
       </c>
     </row>
@@ -32348,7 +32348,7 @@
       </c>
       <c r="G863" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:38</t>
+          <t>2024-08-18 14:22:23</t>
         </is>
       </c>
     </row>
@@ -32385,7 +32385,7 @@
       </c>
       <c r="G864" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:38</t>
+          <t>2024-08-18 14:22:23</t>
         </is>
       </c>
     </row>
@@ -32422,7 +32422,7 @@
       </c>
       <c r="G865" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:38</t>
+          <t>2024-08-18 14:22:23</t>
         </is>
       </c>
     </row>
@@ -32459,7 +32459,7 @@
       </c>
       <c r="G866" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:38</t>
+          <t>2024-08-18 14:22:23</t>
         </is>
       </c>
     </row>
@@ -32496,7 +32496,7 @@
       </c>
       <c r="G867" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:38</t>
+          <t>2024-08-18 14:22:23</t>
         </is>
       </c>
     </row>
@@ -32533,7 +32533,7 @@
       </c>
       <c r="G868" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:38</t>
+          <t>2024-08-18 14:22:23</t>
         </is>
       </c>
     </row>
@@ -32570,7 +32570,7 @@
       </c>
       <c r="G869" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:38</t>
+          <t>2024-08-18 14:22:23</t>
         </is>
       </c>
     </row>
@@ -32607,7 +32607,7 @@
       </c>
       <c r="G870" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:38</t>
+          <t>2024-08-18 14:22:23</t>
         </is>
       </c>
     </row>
@@ -32644,7 +32644,7 @@
       </c>
       <c r="G871" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:38</t>
+          <t>2024-08-18 14:22:23</t>
         </is>
       </c>
     </row>
@@ -32681,7 +32681,7 @@
       </c>
       <c r="G872" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:38</t>
+          <t>2024-08-18 14:22:23</t>
         </is>
       </c>
     </row>
@@ -32718,7 +32718,7 @@
       </c>
       <c r="G873" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:38</t>
+          <t>2024-08-18 14:22:23</t>
         </is>
       </c>
     </row>
@@ -32755,7 +32755,7 @@
       </c>
       <c r="G874" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:38</t>
+          <t>2024-08-18 14:22:23</t>
         </is>
       </c>
     </row>
@@ -32792,7 +32792,7 @@
       </c>
       <c r="G875" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:38</t>
+          <t>2024-08-18 14:22:23</t>
         </is>
       </c>
     </row>
@@ -32829,7 +32829,7 @@
       </c>
       <c r="G876" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:38</t>
+          <t>2024-08-18 14:22:23</t>
         </is>
       </c>
     </row>
@@ -32866,7 +32866,7 @@
       </c>
       <c r="G877" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:38</t>
+          <t>2024-08-18 14:22:23</t>
         </is>
       </c>
     </row>
@@ -32903,7 +32903,7 @@
       </c>
       <c r="G878" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:38</t>
+          <t>2024-08-18 14:22:23</t>
         </is>
       </c>
     </row>
@@ -32940,7 +32940,7 @@
       </c>
       <c r="G879" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:38</t>
+          <t>2024-08-18 14:22:23</t>
         </is>
       </c>
     </row>
@@ -32977,7 +32977,7 @@
       </c>
       <c r="G880" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:38</t>
+          <t>2024-08-18 14:22:23</t>
         </is>
       </c>
     </row>
@@ -33014,7 +33014,7 @@
       </c>
       <c r="G881" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:38</t>
+          <t>2024-08-18 14:22:23</t>
         </is>
       </c>
     </row>
@@ -33051,7 +33051,7 @@
       </c>
       <c r="G882" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:42</t>
+          <t>2024-08-18 14:22:27</t>
         </is>
       </c>
     </row>
@@ -33088,7 +33088,7 @@
       </c>
       <c r="G883" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:42</t>
+          <t>2024-08-18 14:22:27</t>
         </is>
       </c>
     </row>
@@ -33125,7 +33125,7 @@
       </c>
       <c r="G884" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:42</t>
+          <t>2024-08-18 14:22:27</t>
         </is>
       </c>
     </row>
@@ -33162,7 +33162,7 @@
       </c>
       <c r="G885" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:42</t>
+          <t>2024-08-18 14:22:27</t>
         </is>
       </c>
     </row>
@@ -33199,7 +33199,7 @@
       </c>
       <c r="G886" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:42</t>
+          <t>2024-08-18 14:22:27</t>
         </is>
       </c>
     </row>
@@ -33236,7 +33236,7 @@
       </c>
       <c r="G887" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:42</t>
+          <t>2024-08-18 14:22:27</t>
         </is>
       </c>
     </row>
@@ -33273,7 +33273,7 @@
       </c>
       <c r="G888" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:42</t>
+          <t>2024-08-18 14:22:27</t>
         </is>
       </c>
     </row>
@@ -33310,7 +33310,7 @@
       </c>
       <c r="G889" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:42</t>
+          <t>2024-08-18 14:22:27</t>
         </is>
       </c>
     </row>
@@ -33347,7 +33347,7 @@
       </c>
       <c r="G890" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:42</t>
+          <t>2024-08-18 14:22:27</t>
         </is>
       </c>
     </row>
@@ -33384,7 +33384,7 @@
       </c>
       <c r="G891" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:42</t>
+          <t>2024-08-18 14:22:27</t>
         </is>
       </c>
     </row>
@@ -33421,7 +33421,7 @@
       </c>
       <c r="G892" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:42</t>
+          <t>2024-08-18 14:22:27</t>
         </is>
       </c>
     </row>
@@ -33458,7 +33458,7 @@
       </c>
       <c r="G893" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:42</t>
+          <t>2024-08-18 14:22:27</t>
         </is>
       </c>
     </row>
@@ -33495,7 +33495,7 @@
       </c>
       <c r="G894" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:42</t>
+          <t>2024-08-18 14:22:27</t>
         </is>
       </c>
     </row>
@@ -33532,7 +33532,7 @@
       </c>
       <c r="G895" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:42</t>
+          <t>2024-08-18 14:22:27</t>
         </is>
       </c>
     </row>
@@ -33569,7 +33569,7 @@
       </c>
       <c r="G896" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:42</t>
+          <t>2024-08-18 14:22:27</t>
         </is>
       </c>
     </row>
@@ -33606,7 +33606,7 @@
       </c>
       <c r="G897" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:42</t>
+          <t>2024-08-18 14:22:27</t>
         </is>
       </c>
     </row>
@@ -33643,7 +33643,7 @@
       </c>
       <c r="G898" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:42</t>
+          <t>2024-08-18 14:22:27</t>
         </is>
       </c>
     </row>
@@ -33680,7 +33680,7 @@
       </c>
       <c r="G899" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:42</t>
+          <t>2024-08-18 14:22:27</t>
         </is>
       </c>
     </row>
@@ -33717,7 +33717,7 @@
       </c>
       <c r="G900" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:42</t>
+          <t>2024-08-18 14:22:27</t>
         </is>
       </c>
     </row>
@@ -33754,7 +33754,7 @@
       </c>
       <c r="G901" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:42</t>
+          <t>2024-08-18 14:22:27</t>
         </is>
       </c>
     </row>
@@ -33791,7 +33791,7 @@
       </c>
       <c r="G902" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:45</t>
+          <t>2024-08-18 14:22:31</t>
         </is>
       </c>
     </row>
@@ -33828,7 +33828,7 @@
       </c>
       <c r="G903" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:45</t>
+          <t>2024-08-18 14:22:31</t>
         </is>
       </c>
     </row>
@@ -33865,7 +33865,7 @@
       </c>
       <c r="G904" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:45</t>
+          <t>2024-08-18 14:22:31</t>
         </is>
       </c>
     </row>
@@ -33902,7 +33902,7 @@
       </c>
       <c r="G905" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:45</t>
+          <t>2024-08-18 14:22:31</t>
         </is>
       </c>
     </row>
@@ -33939,7 +33939,7 @@
       </c>
       <c r="G906" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:45</t>
+          <t>2024-08-18 14:22:31</t>
         </is>
       </c>
     </row>
@@ -33976,7 +33976,7 @@
       </c>
       <c r="G907" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:45</t>
+          <t>2024-08-18 14:22:31</t>
         </is>
       </c>
     </row>
@@ -34013,7 +34013,7 @@
       </c>
       <c r="G908" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:45</t>
+          <t>2024-08-18 14:22:31</t>
         </is>
       </c>
     </row>
@@ -34050,7 +34050,7 @@
       </c>
       <c r="G909" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:45</t>
+          <t>2024-08-18 14:22:31</t>
         </is>
       </c>
     </row>
@@ -34087,7 +34087,7 @@
       </c>
       <c r="G910" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:45</t>
+          <t>2024-08-18 14:22:31</t>
         </is>
       </c>
     </row>
@@ -34124,7 +34124,7 @@
       </c>
       <c r="G911" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:45</t>
+          <t>2024-08-18 14:22:31</t>
         </is>
       </c>
     </row>
@@ -34161,7 +34161,7 @@
       </c>
       <c r="G912" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:45</t>
+          <t>2024-08-18 14:22:31</t>
         </is>
       </c>
     </row>
@@ -34198,7 +34198,7 @@
       </c>
       <c r="G913" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:45</t>
+          <t>2024-08-18 14:22:31</t>
         </is>
       </c>
     </row>
@@ -34235,7 +34235,7 @@
       </c>
       <c r="G914" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:45</t>
+          <t>2024-08-18 14:22:31</t>
         </is>
       </c>
     </row>
@@ -34272,7 +34272,7 @@
       </c>
       <c r="G915" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:45</t>
+          <t>2024-08-18 14:22:31</t>
         </is>
       </c>
     </row>
@@ -34309,7 +34309,7 @@
       </c>
       <c r="G916" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:45</t>
+          <t>2024-08-18 14:22:31</t>
         </is>
       </c>
     </row>
@@ -34346,7 +34346,7 @@
       </c>
       <c r="G917" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:45</t>
+          <t>2024-08-18 14:22:31</t>
         </is>
       </c>
     </row>
@@ -34383,7 +34383,7 @@
       </c>
       <c r="G918" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:45</t>
+          <t>2024-08-18 14:22:31</t>
         </is>
       </c>
     </row>
@@ -34420,7 +34420,7 @@
       </c>
       <c r="G919" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:45</t>
+          <t>2024-08-18 14:22:31</t>
         </is>
       </c>
     </row>
@@ -34457,7 +34457,7 @@
       </c>
       <c r="G920" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:45</t>
+          <t>2024-08-18 14:22:31</t>
         </is>
       </c>
     </row>
@@ -34494,7 +34494,7 @@
       </c>
       <c r="G921" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:45</t>
+          <t>2024-08-18 14:22:31</t>
         </is>
       </c>
     </row>
@@ -34531,7 +34531,7 @@
       </c>
       <c r="G922" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:49</t>
+          <t>2024-08-18 14:22:34</t>
         </is>
       </c>
     </row>
@@ -34568,7 +34568,7 @@
       </c>
       <c r="G923" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:49</t>
+          <t>2024-08-18 14:22:35</t>
         </is>
       </c>
     </row>
@@ -34605,7 +34605,7 @@
       </c>
       <c r="G924" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:49</t>
+          <t>2024-08-18 14:22:35</t>
         </is>
       </c>
     </row>
@@ -34642,7 +34642,7 @@
       </c>
       <c r="G925" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:49</t>
+          <t>2024-08-18 14:22:35</t>
         </is>
       </c>
     </row>
@@ -34679,7 +34679,7 @@
       </c>
       <c r="G926" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:49</t>
+          <t>2024-08-18 14:22:35</t>
         </is>
       </c>
     </row>
@@ -34716,7 +34716,7 @@
       </c>
       <c r="G927" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:49</t>
+          <t>2024-08-18 14:22:35</t>
         </is>
       </c>
     </row>
@@ -34753,7 +34753,7 @@
       </c>
       <c r="G928" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:49</t>
+          <t>2024-08-18 14:22:35</t>
         </is>
       </c>
     </row>
@@ -34790,7 +34790,7 @@
       </c>
       <c r="G929" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:49</t>
+          <t>2024-08-18 14:22:35</t>
         </is>
       </c>
     </row>
@@ -34827,7 +34827,7 @@
       </c>
       <c r="G930" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:49</t>
+          <t>2024-08-18 14:22:35</t>
         </is>
       </c>
     </row>
@@ -34864,7 +34864,7 @@
       </c>
       <c r="G931" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:49</t>
+          <t>2024-08-18 14:22:35</t>
         </is>
       </c>
     </row>
@@ -34901,7 +34901,7 @@
       </c>
       <c r="G932" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:49</t>
+          <t>2024-08-18 14:22:35</t>
         </is>
       </c>
     </row>
@@ -34938,7 +34938,7 @@
       </c>
       <c r="G933" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:49</t>
+          <t>2024-08-18 14:22:35</t>
         </is>
       </c>
     </row>
@@ -34975,7 +34975,7 @@
       </c>
       <c r="G934" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:49</t>
+          <t>2024-08-18 14:22:35</t>
         </is>
       </c>
     </row>
@@ -35012,7 +35012,7 @@
       </c>
       <c r="G935" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:49</t>
+          <t>2024-08-18 14:22:35</t>
         </is>
       </c>
     </row>
@@ -35049,7 +35049,7 @@
       </c>
       <c r="G936" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:49</t>
+          <t>2024-08-18 14:22:35</t>
         </is>
       </c>
     </row>
@@ -35086,7 +35086,7 @@
       </c>
       <c r="G937" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:49</t>
+          <t>2024-08-18 14:22:35</t>
         </is>
       </c>
     </row>
@@ -35123,7 +35123,7 @@
       </c>
       <c r="G938" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:49</t>
+          <t>2024-08-18 14:22:35</t>
         </is>
       </c>
     </row>
@@ -35160,7 +35160,7 @@
       </c>
       <c r="G939" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:49</t>
+          <t>2024-08-18 14:22:35</t>
         </is>
       </c>
     </row>
@@ -35197,7 +35197,7 @@
       </c>
       <c r="G940" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:49</t>
+          <t>2024-08-18 14:22:35</t>
         </is>
       </c>
     </row>
@@ -35234,7 +35234,7 @@
       </c>
       <c r="G941" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:49</t>
+          <t>2024-08-18 14:22:35</t>
         </is>
       </c>
     </row>
@@ -35271,7 +35271,7 @@
       </c>
       <c r="G942" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:52</t>
+          <t>2024-08-18 14:22:38</t>
         </is>
       </c>
     </row>
@@ -35308,7 +35308,7 @@
       </c>
       <c r="G943" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:52</t>
+          <t>2024-08-18 14:22:38</t>
         </is>
       </c>
     </row>
@@ -35345,7 +35345,7 @@
       </c>
       <c r="G944" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:52</t>
+          <t>2024-08-18 14:22:38</t>
         </is>
       </c>
     </row>
@@ -35382,7 +35382,7 @@
       </c>
       <c r="G945" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:52</t>
+          <t>2024-08-18 14:22:38</t>
         </is>
       </c>
     </row>
@@ -35419,7 +35419,7 @@
       </c>
       <c r="G946" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:52</t>
+          <t>2024-08-18 14:22:38</t>
         </is>
       </c>
     </row>
@@ -35456,7 +35456,7 @@
       </c>
       <c r="G947" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:52</t>
+          <t>2024-08-18 14:22:38</t>
         </is>
       </c>
     </row>
@@ -35493,7 +35493,7 @@
       </c>
       <c r="G948" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:52</t>
+          <t>2024-08-18 14:22:38</t>
         </is>
       </c>
     </row>
@@ -35530,7 +35530,7 @@
       </c>
       <c r="G949" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:52</t>
+          <t>2024-08-18 14:22:38</t>
         </is>
       </c>
     </row>
@@ -35567,7 +35567,7 @@
       </c>
       <c r="G950" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:52</t>
+          <t>2024-08-18 14:22:38</t>
         </is>
       </c>
     </row>
@@ -35604,7 +35604,7 @@
       </c>
       <c r="G951" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:52</t>
+          <t>2024-08-18 14:22:38</t>
         </is>
       </c>
     </row>
@@ -35641,7 +35641,7 @@
       </c>
       <c r="G952" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:52</t>
+          <t>2024-08-18 14:22:38</t>
         </is>
       </c>
     </row>
@@ -35678,7 +35678,7 @@
       </c>
       <c r="G953" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:52</t>
+          <t>2024-08-18 14:22:38</t>
         </is>
       </c>
     </row>
@@ -35715,7 +35715,7 @@
       </c>
       <c r="G954" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:52</t>
+          <t>2024-08-18 14:22:38</t>
         </is>
       </c>
     </row>
@@ -35752,7 +35752,7 @@
       </c>
       <c r="G955" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:52</t>
+          <t>2024-08-18 14:22:38</t>
         </is>
       </c>
     </row>
@@ -35789,7 +35789,7 @@
       </c>
       <c r="G956" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:52</t>
+          <t>2024-08-18 14:22:38</t>
         </is>
       </c>
     </row>
@@ -35826,7 +35826,7 @@
       </c>
       <c r="G957" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:52</t>
+          <t>2024-08-18 14:22:38</t>
         </is>
       </c>
     </row>
@@ -35863,7 +35863,7 @@
       </c>
       <c r="G958" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:52</t>
+          <t>2024-08-18 14:22:38</t>
         </is>
       </c>
     </row>
@@ -35900,7 +35900,7 @@
       </c>
       <c r="G959" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:52</t>
+          <t>2024-08-18 14:22:38</t>
         </is>
       </c>
     </row>
@@ -35937,7 +35937,7 @@
       </c>
       <c r="G960" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:52</t>
+          <t>2024-08-18 14:22:38</t>
         </is>
       </c>
     </row>
@@ -35974,7 +35974,7 @@
       </c>
       <c r="G961" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:52</t>
+          <t>2024-08-18 14:22:38</t>
         </is>
       </c>
     </row>
@@ -36011,7 +36011,7 @@
       </c>
       <c r="G962" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:56</t>
+          <t>2024-08-18 14:22:42</t>
         </is>
       </c>
     </row>
@@ -36048,7 +36048,7 @@
       </c>
       <c r="G963" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:56</t>
+          <t>2024-08-18 14:22:42</t>
         </is>
       </c>
     </row>
@@ -36085,7 +36085,7 @@
       </c>
       <c r="G964" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:56</t>
+          <t>2024-08-18 14:22:42</t>
         </is>
       </c>
     </row>
@@ -36122,7 +36122,7 @@
       </c>
       <c r="G965" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:56</t>
+          <t>2024-08-18 14:22:42</t>
         </is>
       </c>
     </row>
@@ -36159,7 +36159,7 @@
       </c>
       <c r="G966" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:56</t>
+          <t>2024-08-18 14:22:42</t>
         </is>
       </c>
     </row>
@@ -36196,7 +36196,7 @@
       </c>
       <c r="G967" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:56</t>
+          <t>2024-08-18 14:22:42</t>
         </is>
       </c>
     </row>
@@ -36233,7 +36233,7 @@
       </c>
       <c r="G968" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:56</t>
+          <t>2024-08-18 14:22:42</t>
         </is>
       </c>
     </row>
@@ -36270,7 +36270,7 @@
       </c>
       <c r="G969" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:56</t>
+          <t>2024-08-18 14:22:42</t>
         </is>
       </c>
     </row>
@@ -36307,7 +36307,7 @@
       </c>
       <c r="G970" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:56</t>
+          <t>2024-08-18 14:22:42</t>
         </is>
       </c>
     </row>
@@ -36344,7 +36344,7 @@
       </c>
       <c r="G971" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:56</t>
+          <t>2024-08-18 14:22:42</t>
         </is>
       </c>
     </row>
@@ -36381,7 +36381,7 @@
       </c>
       <c r="G972" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:56</t>
+          <t>2024-08-18 14:22:42</t>
         </is>
       </c>
     </row>
@@ -36418,7 +36418,7 @@
       </c>
       <c r="G973" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:56</t>
+          <t>2024-08-18 14:22:42</t>
         </is>
       </c>
     </row>
@@ -36455,7 +36455,7 @@
       </c>
       <c r="G974" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:56</t>
+          <t>2024-08-18 14:22:42</t>
         </is>
       </c>
     </row>
@@ -36492,7 +36492,7 @@
       </c>
       <c r="G975" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:56</t>
+          <t>2024-08-18 14:22:42</t>
         </is>
       </c>
     </row>
@@ -36529,7 +36529,7 @@
       </c>
       <c r="G976" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:56</t>
+          <t>2024-08-18 14:22:42</t>
         </is>
       </c>
     </row>
@@ -36566,7 +36566,7 @@
       </c>
       <c r="G977" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:56</t>
+          <t>2024-08-18 14:22:42</t>
         </is>
       </c>
     </row>
@@ -36603,7 +36603,7 @@
       </c>
       <c r="G978" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:56</t>
+          <t>2024-08-18 14:22:42</t>
         </is>
       </c>
     </row>
@@ -36640,7 +36640,7 @@
       </c>
       <c r="G979" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:56</t>
+          <t>2024-08-18 14:22:42</t>
         </is>
       </c>
     </row>
@@ -36677,7 +36677,7 @@
       </c>
       <c r="G980" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:56</t>
+          <t>2024-08-18 14:22:42</t>
         </is>
       </c>
     </row>
@@ -36714,7 +36714,7 @@
       </c>
       <c r="G981" t="inlineStr">
         <is>
-          <t>2024-08-18 13:20:56</t>
+          <t>2024-08-18 14:22:42</t>
         </is>
       </c>
     </row>
@@ -36751,7 +36751,7 @@
       </c>
       <c r="G982" t="inlineStr">
         <is>
-          <t>2024-08-18 13:21:00</t>
+          <t>2024-08-18 14:22:46</t>
         </is>
       </c>
     </row>
@@ -36788,7 +36788,7 @@
       </c>
       <c r="G983" t="inlineStr">
         <is>
-          <t>2024-08-18 13:21:00</t>
+          <t>2024-08-18 14:22:46</t>
         </is>
       </c>
     </row>
@@ -36825,7 +36825,7 @@
       </c>
       <c r="G984" t="inlineStr">
         <is>
-          <t>2024-08-18 13:21:00</t>
+          <t>2024-08-18 14:22:46</t>
         </is>
       </c>
     </row>
@@ -36862,7 +36862,7 @@
       </c>
       <c r="G985" t="inlineStr">
         <is>
-          <t>2024-08-18 13:21:00</t>
+          <t>2024-08-18 14:22:46</t>
         </is>
       </c>
     </row>
@@ -36899,7 +36899,7 @@
       </c>
       <c r="G986" t="inlineStr">
         <is>
-          <t>2024-08-18 13:21:00</t>
+          <t>2024-08-18 14:22:46</t>
         </is>
       </c>
     </row>
@@ -36936,7 +36936,7 @@
       </c>
       <c r="G987" t="inlineStr">
         <is>
-          <t>2024-08-18 13:21:00</t>
+          <t>2024-08-18 14:22:46</t>
         </is>
       </c>
     </row>
@@ -36973,7 +36973,7 @@
       </c>
       <c r="G988" t="inlineStr">
         <is>
-          <t>2024-08-18 13:21:00</t>
+          <t>2024-08-18 14:22:46</t>
         </is>
       </c>
     </row>
@@ -37010,7 +37010,7 @@
       </c>
       <c r="G989" t="inlineStr">
         <is>
-          <t>2024-08-18 13:21:00</t>
+          <t>2024-08-18 14:22:46</t>
         </is>
       </c>
     </row>
@@ -37047,7 +37047,7 @@
       </c>
       <c r="G990" t="inlineStr">
         <is>
-          <t>2024-08-18 13:21:00</t>
+          <t>2024-08-18 14:22:46</t>
         </is>
       </c>
     </row>
@@ -37084,7 +37084,7 @@
       </c>
       <c r="G991" t="inlineStr">
         <is>
-          <t>2024-08-18 13:21:00</t>
+          <t>2024-08-18 14:22:46</t>
         </is>
       </c>
     </row>
@@ -37121,7 +37121,7 @@
       </c>
       <c r="G992" t="inlineStr">
         <is>
-          <t>2024-08-18 13:21:00</t>
+          <t>2024-08-18 14:22:46</t>
         </is>
       </c>
     </row>
@@ -37158,7 +37158,7 @@
       </c>
       <c r="G993" t="inlineStr">
         <is>
-          <t>2024-08-18 13:21:00</t>
+          <t>2024-08-18 14:22:46</t>
         </is>
       </c>
     </row>
@@ -37195,7 +37195,7 @@
       </c>
       <c r="G994" t="inlineStr">
         <is>
-          <t>2024-08-18 13:21:00</t>
+          <t>2024-08-18 14:22:46</t>
         </is>
       </c>
     </row>
@@ -37232,7 +37232,7 @@
       </c>
       <c r="G995" t="inlineStr">
         <is>
-          <t>2024-08-18 13:21:00</t>
+          <t>2024-08-18 14:22:46</t>
         </is>
       </c>
     </row>
@@ -37269,7 +37269,7 @@
       </c>
       <c r="G996" t="inlineStr">
         <is>
-          <t>2024-08-18 13:21:00</t>
+          <t>2024-08-18 14:22:46</t>
         </is>
       </c>
     </row>
@@ -37306,7 +37306,7 @@
       </c>
       <c r="G997" t="inlineStr">
         <is>
-          <t>2024-08-18 13:21:00</t>
+          <t>2024-08-18 14:22:46</t>
         </is>
       </c>
     </row>
@@ -37343,7 +37343,7 @@
       </c>
       <c r="G998" t="inlineStr">
         <is>
-          <t>2024-08-18 13:21:00</t>
+          <t>2024-08-18 14:22:46</t>
         </is>
       </c>
     </row>
@@ -37380,7 +37380,7 @@
       </c>
       <c r="G999" t="inlineStr">
         <is>
-          <t>2024-08-18 13:21:00</t>
+          <t>2024-08-18 14:22:46</t>
         </is>
       </c>
     </row>
@@ -37417,7 +37417,7 @@
       </c>
       <c r="G1000" t="inlineStr">
         <is>
-          <t>2024-08-18 13:21:00</t>
+          <t>2024-08-18 14:22:46</t>
         </is>
       </c>
     </row>
@@ -37454,7 +37454,7 @@
       </c>
       <c r="G1001" t="inlineStr">
         <is>
-          <t>2024-08-18 13:21:00</t>
+          <t>2024-08-18 14:22:46</t>
         </is>
       </c>
     </row>
